--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.003509806756791948</v>
+        <v>-0.005167053135579866</v>
       </c>
       <c r="C2">
-        <v>0.001198193995202121</v>
+        <v>0.002104950999005637</v>
       </c>
       <c r="D2">
-        <v>0.002369961000881797</v>
+        <v>0.003187916420915348</v>
       </c>
       <c r="E2">
-        <v>0.001837044939287333</v>
+        <v>0.002470822118296571</v>
       </c>
       <c r="F2">
-        <v>0.002691858697726895</v>
+        <v>0.003181351256669474</v>
       </c>
       <c r="G2">
-        <v>0.002755861500047734</v>
+        <v>0.003228537053641521</v>
       </c>
       <c r="H2">
-        <v>0.001607287794995662</v>
+        <v>0.001751504604363263</v>
       </c>
       <c r="I2">
-        <v>-0.0005823325541860741</v>
+        <v>-0.001136485138754699</v>
       </c>
       <c r="J2">
-        <v>-0.0004762682052733545</v>
+        <v>-0.0003324731777833999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.6223038704960996</v>
+        <v>-0.5706446769457643</v>
       </c>
       <c r="C3">
-        <v>0.1104892986039866</v>
+        <v>0.1366687345578532</v>
       </c>
       <c r="D3">
-        <v>0.2155397251602928</v>
+        <v>0.2601331270750712</v>
       </c>
       <c r="E3">
-        <v>0.1439162900844085</v>
+        <v>0.2137261538652426</v>
       </c>
       <c r="F3">
-        <v>0.4897148015412209</v>
+        <v>0.3963410754184193</v>
       </c>
       <c r="G3">
-        <v>0.5417632502159798</v>
+        <v>0.4062520952612371</v>
       </c>
       <c r="H3">
-        <v>0.4387514639925446</v>
+        <v>0.2756190232687732</v>
       </c>
       <c r="I3">
-        <v>-0.1980469266798948</v>
+        <v>-0.1792961880249364</v>
       </c>
       <c r="J3">
-        <v>0.06227844457640668</v>
+        <v>0.01182043495895474</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.282751446649776</v>
+        <v>-0.555148548369697</v>
       </c>
       <c r="C4">
-        <v>0.2126203882225126</v>
+        <v>0.1489489802794858</v>
       </c>
       <c r="D4">
-        <v>-0.2933089529033855</v>
+        <v>0.172210028165014</v>
       </c>
       <c r="E4">
-        <v>0.5639006490156673</v>
+        <v>0.2483718142099233</v>
       </c>
       <c r="F4">
-        <v>1.180218767028251</v>
+        <v>0.3273148943320446</v>
       </c>
       <c r="G4">
-        <v>1.117984298219226</v>
+        <v>0.4382326042412356</v>
       </c>
       <c r="H4">
-        <v>0.8187557792507576</v>
+        <v>0.3217742241080894</v>
       </c>
       <c r="I4">
-        <v>-1.220090584185814</v>
+        <v>-0.1857562898184836</v>
       </c>
       <c r="J4">
-        <v>-0.2253402891455288</v>
+        <v>-0.2081377090309092</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.002867410921269721</v>
+        <v>-1.030997897788617</v>
       </c>
       <c r="C5">
-        <v>0.001712955115125935</v>
+        <v>0.06671009047154959</v>
       </c>
       <c r="D5">
-        <v>0.002216230219170053</v>
+        <v>0.1201724237616952</v>
       </c>
       <c r="E5">
-        <v>0.001748685472673064</v>
+        <v>0.4914016498359464</v>
       </c>
       <c r="F5">
-        <v>0.002416112784637969</v>
+        <v>0.7317814852202144</v>
       </c>
       <c r="G5">
-        <v>0.002474087196900044</v>
+        <v>0.8391485204256027</v>
       </c>
       <c r="H5">
-        <v>0.000831856420063405</v>
+        <v>0.5674079204967092</v>
       </c>
       <c r="I5">
-        <v>-0.0007906255751744458</v>
+        <v>-0.797304210463278</v>
       </c>
       <c r="J5">
-        <v>0.0002185685251999132</v>
+        <v>0.1170204078213727</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2658540107869217</v>
+        <v>-1.291818352478092</v>
       </c>
       <c r="C6">
-        <v>0.05947289625529036</v>
+        <v>0.1473981155896625</v>
       </c>
       <c r="D6">
-        <v>0.1820050344203163</v>
+        <v>0.1696378051891901</v>
       </c>
       <c r="E6">
-        <v>0.1068051068249899</v>
+        <v>0.7107909509722413</v>
       </c>
       <c r="F6">
-        <v>0.1888136941431238</v>
+        <v>0.5835653246140874</v>
       </c>
       <c r="G6">
-        <v>0.1832111681439552</v>
+        <v>0.8463182614341129</v>
       </c>
       <c r="H6">
-        <v>0.0422395520487273</v>
+        <v>0.8002688904369106</v>
       </c>
       <c r="I6">
-        <v>-0.05673673510318627</v>
+        <v>-0.3886195727316654</v>
       </c>
       <c r="J6">
-        <v>-0.03938899522150266</v>
+        <v>-0.2037587186506301</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.6901175509482064</v>
+        <v>-1.433659611596119</v>
       </c>
       <c r="C7">
-        <v>0.06718926575955687</v>
+        <v>0.3293031245425219</v>
       </c>
       <c r="D7">
-        <v>0.3359538567912389</v>
+        <v>-0.2106447025841527</v>
       </c>
       <c r="E7">
-        <v>0.4421823768738435</v>
+        <v>0.3864983326584587</v>
       </c>
       <c r="F7">
-        <v>0.6949561455385581</v>
+        <v>0.9380015428990837</v>
       </c>
       <c r="G7">
-        <v>0.66217342942035</v>
+        <v>1.070887711900986</v>
       </c>
       <c r="H7">
-        <v>0.2464032721801905</v>
+        <v>0.7198362436222456</v>
       </c>
       <c r="I7">
-        <v>-1.472457573675447</v>
+        <v>-0.3815779000091912</v>
       </c>
       <c r="J7">
-        <v>-0.01700257786995778</v>
+        <v>-0.2385779546552205</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.6482997078787374</v>
+        <v>-0.3223046496464005</v>
       </c>
       <c r="C8">
-        <v>-0.109124433611015</v>
+        <v>0.09012895849262226</v>
       </c>
       <c r="D8">
-        <v>0.03720568633337797</v>
+        <v>0.139261811131894</v>
       </c>
       <c r="E8">
-        <v>0.3144645621191998</v>
+        <v>0.1268333317612395</v>
       </c>
       <c r="F8">
-        <v>0.9314787823769259</v>
+        <v>0.2061602995086934</v>
       </c>
       <c r="G8">
-        <v>0.9022427046042703</v>
+        <v>0.222389502454739</v>
       </c>
       <c r="H8">
-        <v>0.5885933982554177</v>
+        <v>0.1027551225189605</v>
       </c>
       <c r="I8">
-        <v>-1.655780084366123</v>
+        <v>-0.08034354758275365</v>
       </c>
       <c r="J8">
-        <v>0.1600815155464383</v>
+        <v>-0.03773955584354803</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.9287357011918813</v>
+        <v>-0.7084736078028141</v>
       </c>
       <c r="C9">
-        <v>0.3003635820977249</v>
+        <v>0.1874227668094005</v>
       </c>
       <c r="D9">
-        <v>0.131147448081691</v>
+        <v>0.317811484180745</v>
       </c>
       <c r="E9">
-        <v>0.9532394274675169</v>
+        <v>0.2636720902579328</v>
       </c>
       <c r="F9">
-        <v>0.457365584935026</v>
+        <v>0.472199630813543</v>
       </c>
       <c r="G9">
-        <v>0.534900595853337</v>
+        <v>0.4227292749600712</v>
       </c>
       <c r="H9">
-        <v>0.4879928185141713</v>
+        <v>0.2101289358548759</v>
       </c>
       <c r="I9">
-        <v>-0.4902384877696483</v>
+        <v>-0.1671497444552159</v>
       </c>
       <c r="J9">
-        <v>-0.07285410790764127</v>
+        <v>-0.01882830859004784</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,31 +694,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.294180486825652</v>
+        <v>-0.6958801910222475</v>
       </c>
       <c r="C10">
-        <v>0.4823620619264096</v>
+        <v>0.08467221033985919</v>
       </c>
       <c r="D10">
-        <v>-0.0734507934646982</v>
+        <v>0.2200210862763607</v>
       </c>
       <c r="E10">
-        <v>0.7780089801844204</v>
+        <v>0.4646335592988385</v>
       </c>
       <c r="F10">
-        <v>0.7477037413913621</v>
+        <v>0.3385358901848696</v>
       </c>
       <c r="G10">
-        <v>0.7854542054015704</v>
+        <v>0.4356816003449623</v>
       </c>
       <c r="H10">
-        <v>0.594636417694854</v>
+        <v>0.2746351025472756</v>
       </c>
       <c r="I10">
-        <v>-0.488016702218435</v>
+        <v>-0.2322859601961001</v>
       </c>
       <c r="J10">
-        <v>-0.2310942063775126</v>
+        <v>-0.04765735554112412</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -726,31 +726,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.7092756912849789</v>
+        <v>-0.005261944839154029</v>
       </c>
       <c r="C11">
-        <v>0.09434581452913984</v>
+        <v>0.001225937175474475</v>
       </c>
       <c r="D11">
-        <v>-0.01688716070334718</v>
+        <v>0.003156855167474363</v>
       </c>
       <c r="E11">
-        <v>0.3800390163183546</v>
+        <v>0.002346577014221246</v>
       </c>
       <c r="F11">
-        <v>0.7332415796152383</v>
+        <v>0.003181108478739355</v>
       </c>
       <c r="G11">
-        <v>0.7576864989694163</v>
+        <v>0.003298481381001617</v>
       </c>
       <c r="H11">
-        <v>0.6977189490868879</v>
+        <v>0.001775832130707458</v>
       </c>
       <c r="I11">
-        <v>-1.253853171442209</v>
+        <v>-0.002061098618801757</v>
       </c>
       <c r="J11">
-        <v>-0.2341152135034139</v>
+        <v>-0.001084628242425535</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -758,31 +758,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.4983595536220237</v>
+        <v>-0.7544503222841561</v>
       </c>
       <c r="C12">
-        <v>0.0499171909025479</v>
+        <v>0.2037814183019162</v>
       </c>
       <c r="D12">
-        <v>-0.4205111331757254</v>
+        <v>0.3105348392428101</v>
       </c>
       <c r="E12">
-        <v>0.6251331422630312</v>
+        <v>0.3294190425671907</v>
       </c>
       <c r="F12">
-        <v>0.8154796930017059</v>
+        <v>0.3918493052389493</v>
       </c>
       <c r="G12">
-        <v>0.8503969849286745</v>
+        <v>0.4153078685919727</v>
       </c>
       <c r="H12">
-        <v>0.5064135764151164</v>
+        <v>0.2494098564146398</v>
       </c>
       <c r="I12">
-        <v>-1.912133076539599</v>
+        <v>-0.2993141047735409</v>
       </c>
       <c r="J12">
-        <v>-0.07978985540347608</v>
+        <v>-0.002125292272722578</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -790,31 +790,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.004357557612344485</v>
+        <v>-0.004381344001572542</v>
       </c>
       <c r="C13">
-        <v>0.001856547756667591</v>
+        <v>0.001875609593485085</v>
       </c>
       <c r="D13">
-        <v>0.002270395354643818</v>
+        <v>0.00264387318562118</v>
       </c>
       <c r="E13">
-        <v>0.002622821861306708</v>
+        <v>0.002325379680252992</v>
       </c>
       <c r="F13">
-        <v>0.002849637713846349</v>
+        <v>0.002931959870688194</v>
       </c>
       <c r="G13">
-        <v>0.002769743898519903</v>
+        <v>0.003039273846053199</v>
       </c>
       <c r="H13">
-        <v>0.001111940463773714</v>
+        <v>0.001613816224419923</v>
       </c>
       <c r="I13">
-        <v>-0.0006413809644862779</v>
+        <v>-0.00155149740608587</v>
       </c>
       <c r="J13">
-        <v>-0.0015087957330749</v>
+        <v>9.606721803238322E-05</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -822,31 +822,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.9239692956382961</v>
+        <v>-1.06116552626977</v>
       </c>
       <c r="C14">
-        <v>0.4379505685736542</v>
+        <v>0.3185193521390375</v>
       </c>
       <c r="D14">
-        <v>0.1260846740812707</v>
+        <v>0.4500373262754868</v>
       </c>
       <c r="E14">
-        <v>0.3859322258494847</v>
+        <v>0.5544440809214101</v>
       </c>
       <c r="F14">
-        <v>0.5269868914471104</v>
+        <v>0.4109050658564212</v>
       </c>
       <c r="G14">
-        <v>0.5023550319479589</v>
+        <v>0.492203205580061</v>
       </c>
       <c r="H14">
-        <v>0.5462131839070761</v>
+        <v>0.2775446743590576</v>
       </c>
       <c r="I14">
-        <v>-0.1445930206662716</v>
+        <v>-0.4356223662785323</v>
       </c>
       <c r="J14">
-        <v>-0.1153510321201351</v>
+        <v>0.1978759710532984</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -854,31 +854,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.26063216316728</v>
+        <v>-0.689057039808569</v>
       </c>
       <c r="C15">
-        <v>0.1342207309640814</v>
+        <v>0.1940031971630987</v>
       </c>
       <c r="D15">
-        <v>0.1367881621683683</v>
+        <v>0.228945437108779</v>
       </c>
       <c r="E15">
-        <v>0.1568322854457178</v>
+        <v>0.4345735807240633</v>
       </c>
       <c r="F15">
-        <v>0.1496221290123864</v>
+        <v>0.3905726417759351</v>
       </c>
       <c r="G15">
-        <v>0.1409656692190847</v>
+        <v>0.4564108328352026</v>
       </c>
       <c r="H15">
-        <v>0.135686680986925</v>
+        <v>0.2245286394113156</v>
       </c>
       <c r="I15">
-        <v>-0.04640959738010268</v>
+        <v>-0.1285491733061673</v>
       </c>
       <c r="J15">
-        <v>-0.03314218843271644</v>
+        <v>0.02743514250486943</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -886,31 +886,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.6660716861420606</v>
+        <v>-0.007572597783005359</v>
       </c>
       <c r="C16">
-        <v>0.1166002910725386</v>
+        <v>0.001963718464534552</v>
       </c>
       <c r="D16">
-        <v>0.2339262273872662</v>
+        <v>0.004087097032763254</v>
       </c>
       <c r="E16">
-        <v>0.392394353852811</v>
+        <v>0.003111573220706481</v>
       </c>
       <c r="F16">
-        <v>0.425807616087328</v>
+        <v>0.003780715510756032</v>
       </c>
       <c r="G16">
-        <v>0.4658860336496211</v>
+        <v>0.003462219683391804</v>
       </c>
       <c r="H16">
-        <v>0.4954342419714835</v>
+        <v>0.001968853941358252</v>
       </c>
       <c r="I16">
-        <v>-0.2453471045049226</v>
+        <v>-0.001652292725285449</v>
       </c>
       <c r="J16">
-        <v>-0.1167782699886142</v>
+        <v>-0.001944315142724927</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -918,31 +918,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-1.739061544984671</v>
+        <v>-1.180843598867497</v>
       </c>
       <c r="C17">
-        <v>0.6494696170362919</v>
+        <v>0.1033002905827562</v>
       </c>
       <c r="D17">
-        <v>-0.1117635017168409</v>
+        <v>0.355895279742391</v>
       </c>
       <c r="E17">
-        <v>0.6403063861290941</v>
+        <v>0.7258560071219252</v>
       </c>
       <c r="F17">
-        <v>1.065879249463203</v>
+        <v>0.6146220647826656</v>
       </c>
       <c r="G17">
-        <v>1.160718037777713</v>
+        <v>0.8883243765731592</v>
       </c>
       <c r="H17">
-        <v>0.9126698301654389</v>
+        <v>0.3541551102842381</v>
       </c>
       <c r="I17">
-        <v>-0.7224619382986083</v>
+        <v>-0.4309568987009882</v>
       </c>
       <c r="J17">
-        <v>-0.5507786026128875</v>
+        <v>0.2582319445715945</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -950,31 +950,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.6191050238693571</v>
+        <v>-1.013619513946008</v>
       </c>
       <c r="C18">
-        <v>0.1711101508457382</v>
+        <v>0.3275585976686827</v>
       </c>
       <c r="D18">
-        <v>0.2108103870650141</v>
+        <v>0.3489815811288072</v>
       </c>
       <c r="E18">
-        <v>0.2154569749962467</v>
+        <v>0.247643448856374</v>
       </c>
       <c r="F18">
-        <v>0.4456390860737894</v>
+        <v>0.5528580963381827</v>
       </c>
       <c r="G18">
-        <v>0.4395769008681908</v>
+        <v>0.5780470063792047</v>
       </c>
       <c r="H18">
-        <v>0.2934081772571966</v>
+        <v>0.3245435873792888</v>
       </c>
       <c r="I18">
-        <v>-0.1146522656699498</v>
+        <v>-0.4841986753603035</v>
       </c>
       <c r="J18">
-        <v>0.06095167899458242</v>
+        <v>0.08339644162405775</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -982,31 +982,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.531604214587261</v>
+        <v>-0.9589484692003254</v>
       </c>
       <c r="C19">
-        <v>1.164182023351083</v>
+        <v>0.2486038208064856</v>
       </c>
       <c r="D19">
-        <v>-0.2634625579991757</v>
+        <v>0.4368167595580521</v>
       </c>
       <c r="E19">
-        <v>1.032472037428188</v>
+        <v>0.3181898107812636</v>
       </c>
       <c r="F19">
-        <v>0.9119475225446471</v>
+        <v>0.427167351598431</v>
       </c>
       <c r="G19">
-        <v>1.121503598271313</v>
+        <v>0.4426870366431502</v>
       </c>
       <c r="H19">
-        <v>0.4981157574324451</v>
+        <v>0.3256996248800257</v>
       </c>
       <c r="I19">
-        <v>-3.723555234419323</v>
+        <v>-0.5493531139083258</v>
       </c>
       <c r="J19">
-        <v>0.3856854180895899</v>
+        <v>0.01457416768439432</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.5551092710604253</v>
+        <v>-1.271333347977622</v>
       </c>
       <c r="C20">
-        <v>0.1477517446128821</v>
+        <v>0.4180432106549871</v>
       </c>
       <c r="D20">
-        <v>0.249131480815911</v>
+        <v>0.0004485058140167008</v>
       </c>
       <c r="E20">
-        <v>0.3039081695878351</v>
+        <v>0.5384611477913648</v>
       </c>
       <c r="F20">
-        <v>0.2723408800683172</v>
+        <v>0.7958473398040016</v>
       </c>
       <c r="G20">
-        <v>0.2971638582203712</v>
+        <v>0.7303081931592927</v>
       </c>
       <c r="H20">
-        <v>0.4478133398716428</v>
+        <v>0.3363952460863951</v>
       </c>
       <c r="I20">
-        <v>-0.1273583263248554</v>
+        <v>-0.7929562777015521</v>
       </c>
       <c r="J20">
-        <v>-0.1764804585829118</v>
+        <v>-0.2621548983790826</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.004965078191781</v>
+        <v>-0.005513657413951246</v>
       </c>
       <c r="C21">
-        <v>0.0494045739839572</v>
+        <v>0.002034695050906793</v>
       </c>
       <c r="D21">
-        <v>1.017993777181187</v>
+        <v>0.003112138544687974</v>
       </c>
       <c r="E21">
-        <v>0.03973521991533092</v>
+        <v>0.002709568194283662</v>
       </c>
       <c r="F21">
-        <v>0.8569758170616646</v>
+        <v>0.003164089363243017</v>
       </c>
       <c r="G21">
-        <v>0.9515278811394318</v>
+        <v>0.003237120929500897</v>
       </c>
       <c r="H21">
-        <v>0.4156720001504651</v>
+        <v>0.002243675548017929</v>
       </c>
       <c r="I21">
-        <v>-3.720907214915449</v>
+        <v>-0.001408170122524888</v>
       </c>
       <c r="J21">
-        <v>0.6459810083298355</v>
+        <v>-0.0003004659762907596</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.248774975269162</v>
+        <v>-0.6772144411003506</v>
       </c>
       <c r="C22">
-        <v>0.4925445215220318</v>
+        <v>0.09215115413006181</v>
       </c>
       <c r="D22">
-        <v>-0.2742148728666209</v>
+        <v>0.2580915674751749</v>
       </c>
       <c r="E22">
-        <v>0.5063886652152211</v>
+        <v>0.2801966819470871</v>
       </c>
       <c r="F22">
-        <v>0.8122492878807017</v>
+        <v>0.401336501346533</v>
       </c>
       <c r="G22">
-        <v>0.9845646747181827</v>
+        <v>0.4036401377579403</v>
       </c>
       <c r="H22">
-        <v>0.6277556443109727</v>
+        <v>0.3182721959058148</v>
       </c>
       <c r="I22">
-        <v>-0.4748044401386093</v>
+        <v>-0.2959441641542988</v>
       </c>
       <c r="J22">
-        <v>-0.6152621443326985</v>
+        <v>-0.08759796739419871</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.149295466488435</v>
+        <v>-0.743920488505214</v>
       </c>
       <c r="C23">
-        <v>0.1805604719810893</v>
+        <v>0.1151937172285055</v>
       </c>
       <c r="D23">
-        <v>0.3034407910594055</v>
+        <v>0.365266683748557</v>
       </c>
       <c r="E23">
-        <v>0.6440855432776803</v>
+        <v>0.4168131266094285</v>
       </c>
       <c r="F23">
-        <v>0.8730115976717381</v>
+        <v>0.3260961873102672</v>
       </c>
       <c r="G23">
-        <v>1.352740137752699</v>
+        <v>0.3887793642452356</v>
       </c>
       <c r="H23">
-        <v>0.439418926360478</v>
+        <v>0.2968146574929504</v>
       </c>
       <c r="I23">
-        <v>-4.595894189943941</v>
+        <v>-0.1923216547014009</v>
       </c>
       <c r="J23">
-        <v>0.567867956074941</v>
+        <v>-0.03966358627041108</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.003650876125662344</v>
+        <v>-0.6580013038205909</v>
       </c>
       <c r="C24">
-        <v>0.002068138538142865</v>
+        <v>0.1711848550746868</v>
       </c>
       <c r="D24">
-        <v>0.002236418123383795</v>
+        <v>0.1875660136256631</v>
       </c>
       <c r="E24">
-        <v>0.002181899405459608</v>
+        <v>0.4173586376277358</v>
       </c>
       <c r="F24">
-        <v>0.002490554966029488</v>
+        <v>0.4709939771788207</v>
       </c>
       <c r="G24">
-        <v>0.002533169871431989</v>
+        <v>0.499077598959052</v>
       </c>
       <c r="H24">
-        <v>0.001325024712634437</v>
+        <v>0.2026703699814915</v>
       </c>
       <c r="I24">
-        <v>-0.000790310105678163</v>
+        <v>-0.2333392625535177</v>
       </c>
       <c r="J24">
-        <v>-0.00112326629913636</v>
+        <v>-0.02238959122615369</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1174,31 +1174,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.008762866365022</v>
+        <v>-0.003954012904122305</v>
       </c>
       <c r="C25">
-        <v>0.04543525281183348</v>
+        <v>0.001708970970823676</v>
       </c>
       <c r="D25">
-        <v>0.3164635203509275</v>
+        <v>0.002176983271603151</v>
       </c>
       <c r="E25">
-        <v>0.7176869254329996</v>
+        <v>0.002113928335632019</v>
       </c>
       <c r="F25">
-        <v>0.585076415492981</v>
+        <v>0.002922349366704788</v>
       </c>
       <c r="G25">
-        <v>0.6867759064457011</v>
+        <v>0.002908240440716533</v>
       </c>
       <c r="H25">
-        <v>0.6310942351016608</v>
+        <v>0.001577967697267401</v>
       </c>
       <c r="I25">
-        <v>-0.175908600432422</v>
+        <v>-0.00146652828595343</v>
       </c>
       <c r="J25">
-        <v>0.0417815817673963</v>
+        <v>-0.001121866986794704</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1206,31 +1206,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.296275048577017</v>
+        <v>-0.004515434084693661</v>
       </c>
       <c r="C26">
-        <v>0.5729390267323421</v>
+        <v>0.001386939215341709</v>
       </c>
       <c r="D26">
-        <v>-0.5154939322158205</v>
+        <v>0.002748236311503775</v>
       </c>
       <c r="E26">
-        <v>0.2344726806517198</v>
+        <v>0.002609310366455081</v>
       </c>
       <c r="F26">
-        <v>1.133304100631332</v>
+        <v>0.002898692089174659</v>
       </c>
       <c r="G26">
-        <v>1.29110445452503</v>
+        <v>0.002833849209262204</v>
       </c>
       <c r="H26">
-        <v>0.6881253233088555</v>
+        <v>0.002017176118149318</v>
       </c>
       <c r="I26">
-        <v>-1.525863311452499</v>
+        <v>-0.00135929471127472</v>
       </c>
       <c r="J26">
-        <v>-0.6101318627908918</v>
+        <v>-0.00115242687774036</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.00400921971121164</v>
+        <v>-0.2969105196836715</v>
       </c>
       <c r="C27">
-        <v>0.001772330484384962</v>
+        <v>0.1096449493986102</v>
       </c>
       <c r="D27">
-        <v>0.002573349265426073</v>
+        <v>0.1192723578124036</v>
       </c>
       <c r="E27">
-        <v>0.002381379294563267</v>
+        <v>0.1504734003316951</v>
       </c>
       <c r="F27">
-        <v>0.00262958492132155</v>
+        <v>0.1869122292430593</v>
       </c>
       <c r="G27">
-        <v>0.002589270192041254</v>
+        <v>0.1957649226585051</v>
       </c>
       <c r="H27">
-        <v>0.001723481771804497</v>
+        <v>0.07008913740790365</v>
       </c>
       <c r="I27">
-        <v>-0.0006119828639826186</v>
+        <v>-0.1118652174649887</v>
       </c>
       <c r="J27">
-        <v>2.658055418226926E-05</v>
+        <v>-0.05525177637347051</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1270,31 +1270,31 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.4278874089091206</v>
+        <v>-1.07202112437785</v>
       </c>
       <c r="C28">
-        <v>0.1978318730776711</v>
+        <v>0.06212410522211249</v>
       </c>
       <c r="D28">
-        <v>0.1994052530762734</v>
+        <v>-0.06624906955577517</v>
       </c>
       <c r="E28">
-        <v>0.2030875217527999</v>
+        <v>0.5055951338016722</v>
       </c>
       <c r="F28">
-        <v>0.4051985795469929</v>
+        <v>0.6668356015764575</v>
       </c>
       <c r="G28">
-        <v>0.3377133719376136</v>
+        <v>0.9151444900602422</v>
       </c>
       <c r="H28">
-        <v>0.2145615011956689</v>
+        <v>0.4309088772186124</v>
       </c>
       <c r="I28">
-        <v>-0.1611982519031122</v>
+        <v>-0.5440369081630665</v>
       </c>
       <c r="J28">
-        <v>-0.02268377448503543</v>
+        <v>0.08541144876246705</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1302,31 +1302,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.041446073438628</v>
+        <v>-1.54949948103818</v>
       </c>
       <c r="C29">
-        <v>0.1539078391484942</v>
+        <v>0.597140238401869</v>
       </c>
       <c r="D29">
-        <v>0.3600513855295134</v>
+        <v>-0.5786375167824456</v>
       </c>
       <c r="E29">
-        <v>0.8890329782748315</v>
+        <v>0.8825127693296551</v>
       </c>
       <c r="F29">
-        <v>0.539490389010039</v>
+        <v>0.7302829430777328</v>
       </c>
       <c r="G29">
-        <v>0.7061251727020246</v>
+        <v>1.111809630870735</v>
       </c>
       <c r="H29">
-        <v>0.7995085409312367</v>
+        <v>0.9032066535225211</v>
       </c>
       <c r="I29">
-        <v>-1.851497709974422</v>
+        <v>-0.4346663801161621</v>
       </c>
       <c r="J29">
-        <v>0.1054177114719234</v>
+        <v>0.01689825250594704</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1334,31 +1334,31 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.435677733023996</v>
+        <v>-0.6203905347680183</v>
       </c>
       <c r="C30">
-        <v>0.9852384799119637</v>
+        <v>0.2456523413470618</v>
       </c>
       <c r="D30">
-        <v>-0.8759279258700546</v>
+        <v>0.1441779662316332</v>
       </c>
       <c r="E30">
-        <v>0.7927906636235174</v>
+        <v>0.2596787483512401</v>
       </c>
       <c r="F30">
-        <v>1.222116976223851</v>
+        <v>0.4001808239777507</v>
       </c>
       <c r="G30">
-        <v>0.9634236834523771</v>
+        <v>0.4580073958474986</v>
       </c>
       <c r="H30">
-        <v>0.6133499860559193</v>
+        <v>0.2413937398272737</v>
       </c>
       <c r="I30">
-        <v>-1.135152900834013</v>
+        <v>-0.2332389347640657</v>
       </c>
       <c r="J30">
-        <v>-0.4265909600952985</v>
+        <v>0.07510020598166017</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1366,31 +1366,31 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.04307301398720426</v>
+        <v>-2.510718982458582</v>
       </c>
       <c r="C31">
-        <v>0.01774320164689132</v>
+        <v>0.3971514529490952</v>
       </c>
       <c r="D31">
-        <v>0.02485459153353967</v>
+        <v>0.5604402570750303</v>
       </c>
       <c r="E31">
-        <v>0.02345368802028765</v>
+        <v>0.6377701120391053</v>
       </c>
       <c r="F31">
-        <v>0.02675009611430162</v>
+        <v>0.7582336125792639</v>
       </c>
       <c r="G31">
-        <v>0.02778375555568982</v>
+        <v>0.8306158196068314</v>
       </c>
       <c r="H31">
-        <v>0.01407821776867589</v>
+        <v>0.7024444763500788</v>
       </c>
       <c r="I31">
-        <v>-0.004911542217795948</v>
+        <v>-2.517887514124336</v>
       </c>
       <c r="J31">
-        <v>-0.003342444428770871</v>
+        <v>-0.2569938659657133</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.6119153762395559</v>
+        <v>-0.00473368157776732</v>
       </c>
       <c r="C32">
-        <v>0.3220934651617182</v>
+        <v>0.001740549084152959</v>
       </c>
       <c r="D32">
-        <v>0.03722986498973017</v>
+        <v>0.002355543950754111</v>
       </c>
       <c r="E32">
-        <v>0.1098088601213246</v>
+        <v>0.002750305608428579</v>
       </c>
       <c r="F32">
-        <v>0.7945422087002988</v>
+        <v>0.002739018508303485</v>
       </c>
       <c r="G32">
-        <v>0.6600635343550131</v>
+        <v>0.002955298992395342</v>
       </c>
       <c r="H32">
-        <v>0.7820369159867994</v>
+        <v>0.002535408631828463</v>
       </c>
       <c r="I32">
-        <v>-1.593889932800575</v>
+        <v>-0.001753885656052088</v>
       </c>
       <c r="J32">
-        <v>-0.3526161970685228</v>
+        <v>9.425563069460514E-05</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1430,31 +1430,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.9516350299823931</v>
+        <v>-0.9610884086106828</v>
       </c>
       <c r="C33">
-        <v>0.5781048949693255</v>
+        <v>0.2974048528272038</v>
       </c>
       <c r="D33">
-        <v>0.00767390140016808</v>
+        <v>0.3771312533109785</v>
       </c>
       <c r="E33">
-        <v>0.4364950475302256</v>
+        <v>0.3534187382583373</v>
       </c>
       <c r="F33">
-        <v>0.7030486401618743</v>
+        <v>0.4761543897041743</v>
       </c>
       <c r="G33">
-        <v>0.8522155228221704</v>
+        <v>0.4920420901539095</v>
       </c>
       <c r="H33">
-        <v>0.3825811053510802</v>
+        <v>0.318697411946862</v>
       </c>
       <c r="I33">
-        <v>-0.7460060225430597</v>
+        <v>-0.5634612503830463</v>
       </c>
       <c r="J33">
-        <v>-0.1570161346557207</v>
+        <v>0.06819670185959154</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1462,31 +1462,31 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.003457478144678379</v>
+        <v>-0.005253632989898878</v>
       </c>
       <c r="C34">
-        <v>0.001547397127397962</v>
+        <v>0.001922668287860175</v>
       </c>
       <c r="D34">
-        <v>0.002274304790083813</v>
+        <v>0.002944685824841437</v>
       </c>
       <c r="E34">
-        <v>0.002166786006822355</v>
+        <v>0.002551779776005565</v>
       </c>
       <c r="F34">
-        <v>0.00249375568072153</v>
+        <v>0.0032527338550489</v>
       </c>
       <c r="G34">
-        <v>0.002345027286897328</v>
+        <v>0.00321308681165444</v>
       </c>
       <c r="H34">
-        <v>0.00192749275731524</v>
+        <v>0.001907957544006474</v>
       </c>
       <c r="I34">
-        <v>-0.0006419501415315374</v>
+        <v>-0.00146240772092605</v>
       </c>
       <c r="J34">
-        <v>-0.0003506675991263514</v>
+        <v>-0.0009007949684281752</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1494,31 +1494,31 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.7631314625164898</v>
+        <v>-2.67083150273855</v>
       </c>
       <c r="C35">
-        <v>0.2344612623623992</v>
+        <v>0.5071624978683623</v>
       </c>
       <c r="D35">
-        <v>0.2459159285799146</v>
+        <v>-1.076747306265405</v>
       </c>
       <c r="E35">
-        <v>0.6542780505296021</v>
+        <v>0.7310901578387227</v>
       </c>
       <c r="F35">
-        <v>0.6086568862555047</v>
+        <v>1.56260506316929</v>
       </c>
       <c r="G35">
-        <v>0.61329572774337</v>
+        <v>2.276759727346898</v>
       </c>
       <c r="H35">
-        <v>0.6099069952417449</v>
+        <v>0.8559350263565249</v>
       </c>
       <c r="I35">
-        <v>-2.860449464357072</v>
+        <v>-0.7375868542960899</v>
       </c>
       <c r="J35">
-        <v>0.2075567571784875</v>
+        <v>-0.2652692617068419</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1526,31 +1526,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.614629072194108</v>
+        <v>-1.95880189934603</v>
       </c>
       <c r="C36">
-        <v>0.09788120024986847</v>
+        <v>0.5543654546988503</v>
       </c>
       <c r="D36">
-        <v>0.03571748477238226</v>
+        <v>0.06547752321234791</v>
       </c>
       <c r="E36">
-        <v>0.4294051719540146</v>
+        <v>0.6439692457232354</v>
       </c>
       <c r="F36">
-        <v>0.9126568238483269</v>
+        <v>0.7385554535422868</v>
       </c>
       <c r="G36">
-        <v>0.7370818981144472</v>
+        <v>0.8074927401150558</v>
       </c>
       <c r="H36">
-        <v>0.5242107994971539</v>
+        <v>0.7979695574453934</v>
       </c>
       <c r="I36">
-        <v>-1.870930038107865</v>
+        <v>-1.613488304369239</v>
       </c>
       <c r="J36">
-        <v>-0.08263981351843887</v>
+        <v>0.1430811455677209</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1558,31 +1558,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.5584550795299613</v>
+        <v>-0.3146822373929113</v>
       </c>
       <c r="C37">
-        <v>0.2924110169856865</v>
+        <v>0.1090297083617673</v>
       </c>
       <c r="D37">
-        <v>0.06361131674477473</v>
+        <v>0.1793085223560231</v>
       </c>
       <c r="E37">
-        <v>0.2476047052552153</v>
+        <v>0.1204770127673241</v>
       </c>
       <c r="F37">
-        <v>0.5062596825499384</v>
+        <v>0.1877637728393962</v>
       </c>
       <c r="G37">
-        <v>0.5132213358213989</v>
+        <v>0.1824529891576278</v>
       </c>
       <c r="H37">
-        <v>0.3211572334204075</v>
+        <v>0.09401570054791183</v>
       </c>
       <c r="I37">
-        <v>-0.239063295678444</v>
+        <v>-0.1112935525007166</v>
       </c>
       <c r="J37">
-        <v>0.02247807864316203</v>
+        <v>-0.02436887222384778</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1590,31 +1590,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.842903565141744</v>
+        <v>-1.448339866199318</v>
       </c>
       <c r="C38">
-        <v>0.3688660253303005</v>
+        <v>0.5112558857639093</v>
       </c>
       <c r="D38">
-        <v>0.3779803579116074</v>
+        <v>-0.2046409619242367</v>
       </c>
       <c r="E38">
-        <v>0.2153129734540373</v>
+        <v>0.5312355204482146</v>
       </c>
       <c r="F38">
-        <v>0.6313870469380145</v>
+        <v>0.9252356110789617</v>
       </c>
       <c r="G38">
-        <v>0.5462865601919334</v>
+        <v>1.008034752055469</v>
       </c>
       <c r="H38">
-        <v>0.5794095251221872</v>
+        <v>0.6143011609721543</v>
       </c>
       <c r="I38">
-        <v>-0.9930625811363296</v>
+        <v>-0.5453132575797991</v>
       </c>
       <c r="J38">
-        <v>0.02998260234986874</v>
+        <v>-0.1516797648736397</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1622,31 +1622,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.5808744368172325</v>
+        <v>-0.621326585129466</v>
       </c>
       <c r="C39">
-        <v>0.3054333499258927</v>
+        <v>0.2432716743383145</v>
       </c>
       <c r="D39">
-        <v>0.1356256556910767</v>
+        <v>0.1008810739785348</v>
       </c>
       <c r="E39">
-        <v>0.3395876534572544</v>
+        <v>0.2931134734340413</v>
       </c>
       <c r="F39">
-        <v>0.3801377818406875</v>
+        <v>0.4160129862676241</v>
       </c>
       <c r="G39">
-        <v>0.3408144060417373</v>
+        <v>0.4174084917762024</v>
       </c>
       <c r="H39">
-        <v>0.2976242034359534</v>
+        <v>0.3137052331429608</v>
       </c>
       <c r="I39">
-        <v>-0.2014959535910713</v>
+        <v>-0.2257039331024002</v>
       </c>
       <c r="J39">
-        <v>0.101675881894149</v>
+        <v>-0.03011683256774726</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1654,31 +1654,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.3493749024927196</v>
+        <v>-0.7972440438518371</v>
       </c>
       <c r="C40">
-        <v>0.1389701268756995</v>
+        <v>0.3453671779880958</v>
       </c>
       <c r="D40">
-        <v>0.2113639025702886</v>
+        <v>0.193619184052364</v>
       </c>
       <c r="E40">
-        <v>0.346013471372122</v>
+        <v>0.2306681981935799</v>
       </c>
       <c r="F40">
-        <v>0.2709037405067966</v>
+        <v>0.4774121335725883</v>
       </c>
       <c r="G40">
-        <v>0.2899000972708426</v>
+        <v>0.5507905109801472</v>
       </c>
       <c r="H40">
-        <v>0.2082982385799071</v>
+        <v>0.4655520321328613</v>
       </c>
       <c r="I40">
-        <v>-0.1810652956450012</v>
+        <v>-0.2436726872745276</v>
       </c>
       <c r="J40">
-        <v>-0.06289883628303601</v>
+        <v>-0.07838846637097927</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1686,31 +1686,31 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.792788413379581</v>
+        <v>-0.004724948365306595</v>
       </c>
       <c r="C41">
-        <v>0.4167288892795525</v>
+        <v>0.001748642483257612</v>
       </c>
       <c r="D41">
-        <v>-0.1136738180460086</v>
+        <v>0.002572994032601165</v>
       </c>
       <c r="E41">
-        <v>0.5257642092396018</v>
+        <v>0.002259827123762112</v>
       </c>
       <c r="F41">
-        <v>1.396238654534519</v>
+        <v>0.003148551936044924</v>
       </c>
       <c r="G41">
-        <v>1.406535889222865</v>
+        <v>0.003275174009682335</v>
       </c>
       <c r="H41">
-        <v>0.9888647976311417</v>
+        <v>0.002081513385522978</v>
       </c>
       <c r="I41">
-        <v>-4.417021472728504</v>
+        <v>-0.001356253728145647</v>
       </c>
       <c r="J41">
-        <v>-0.004298772456417087</v>
+        <v>-0.0004554413105983124</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1718,31 +1718,31 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.1975977225309128</v>
+        <v>-0.005353926693599188</v>
       </c>
       <c r="C42">
-        <v>0.100520128975433</v>
+        <v>0.001908822515002724</v>
       </c>
       <c r="D42">
-        <v>0.1078482967359595</v>
+        <v>0.002963898515580597</v>
       </c>
       <c r="E42">
-        <v>0.1068613125761741</v>
+        <v>0.002660129844404458</v>
       </c>
       <c r="F42">
-        <v>0.1529555208662066</v>
+        <v>0.003268319041647455</v>
       </c>
       <c r="G42">
-        <v>0.1577671109748761</v>
+        <v>0.003346508086802219</v>
       </c>
       <c r="H42">
-        <v>0.1277350996016026</v>
+        <v>0.001516960588476945</v>
       </c>
       <c r="I42">
-        <v>-0.06483947157319854</v>
+        <v>-0.001922526387250594</v>
       </c>
       <c r="J42">
-        <v>0.01326926640846833</v>
+        <v>-6.101457613461319E-05</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1750,31 +1750,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.7749086245514057</v>
+        <v>-0.7123680661658163</v>
       </c>
       <c r="C43">
-        <v>-0.09204579529403087</v>
+        <v>0.1488401651401887</v>
       </c>
       <c r="D43">
-        <v>0.5533620094676568</v>
+        <v>0.2086104640751849</v>
       </c>
       <c r="E43">
-        <v>0.4384244432651792</v>
+        <v>0.2781517305963139</v>
       </c>
       <c r="F43">
-        <v>0.7939563303915584</v>
+        <v>0.4689422346127551</v>
       </c>
       <c r="G43">
-        <v>0.8482977857165638</v>
+        <v>0.4461629724579751</v>
       </c>
       <c r="H43">
-        <v>0.4154384442685723</v>
+        <v>0.4856623061353356</v>
       </c>
       <c r="I43">
-        <v>-3.540810387919132</v>
+        <v>-0.1822475638819863</v>
       </c>
       <c r="J43">
-        <v>0.3182879252093212</v>
+        <v>-0.2765775935606908</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,31 +1782,31 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.2255531785998816</v>
+        <v>-0.8121071480932901</v>
       </c>
       <c r="C44">
-        <v>0.07919399597900104</v>
+        <v>0.1524185227970512</v>
       </c>
       <c r="D44">
-        <v>0.1600781598522461</v>
+        <v>0.2193165148373092</v>
       </c>
       <c r="E44">
-        <v>0.1331402919887098</v>
+        <v>0.2964270660130121</v>
       </c>
       <c r="F44">
-        <v>0.1433163407761371</v>
+        <v>0.5606087096394337</v>
       </c>
       <c r="G44">
-        <v>0.1442084322786119</v>
+        <v>0.5703968748426558</v>
       </c>
       <c r="H44">
-        <v>0.1203437309674768</v>
+        <v>0.4307119322347107</v>
       </c>
       <c r="I44">
-        <v>-0.04306604322554629</v>
+        <v>-0.2495732757394621</v>
       </c>
       <c r="J44">
-        <v>-0.02357782872930262</v>
+        <v>0.07668887023719906</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1814,31 +1814,31 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.096006596709216</v>
+        <v>-2.963537245315201</v>
       </c>
       <c r="C45">
-        <v>0.5845152674555026</v>
+        <v>0.7042856917187488</v>
       </c>
       <c r="D45">
-        <v>0.6436238386755841</v>
+        <v>-0.05367676999358643</v>
       </c>
       <c r="E45">
-        <v>0.6114963249306816</v>
+        <v>1.18227161869879</v>
       </c>
       <c r="F45">
-        <v>0.603159466544996</v>
+        <v>1.377712770961446</v>
       </c>
       <c r="G45">
-        <v>0.6156705694183514</v>
+        <v>1.332447716443799</v>
       </c>
       <c r="H45">
-        <v>0.9113595497219542</v>
+        <v>1.093468086893106</v>
       </c>
       <c r="I45">
-        <v>-3.79907366854414</v>
+        <v>-1.915881405892018</v>
       </c>
       <c r="J45">
-        <v>0.2553643078956169</v>
+        <v>0.1916406952780734</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1846,31 +1846,31 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.2318597946884297</v>
+        <v>-0.7141240514856199</v>
       </c>
       <c r="C46">
-        <v>0.1086288371605081</v>
+        <v>0.2669286323905942</v>
       </c>
       <c r="D46">
-        <v>0.1122970420019638</v>
+        <v>0.1479238389498482</v>
       </c>
       <c r="E46">
-        <v>0.1435512561087623</v>
+        <v>0.3617824588613909</v>
       </c>
       <c r="F46">
-        <v>0.1640848845269945</v>
+        <v>0.4475635739241183</v>
       </c>
       <c r="G46">
-        <v>0.1684023593678037</v>
+        <v>0.5648433760319843</v>
       </c>
       <c r="H46">
-        <v>0.09947478456083114</v>
+        <v>0.3188222848314368</v>
       </c>
       <c r="I46">
-        <v>-0.04110646513319242</v>
+        <v>-0.2280077760136109</v>
       </c>
       <c r="J46">
-        <v>0.01253611660417519</v>
+        <v>-0.04391710348799093</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1878,31 +1878,31 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.9481938272479525</v>
+        <v>-1.894739902976595</v>
       </c>
       <c r="C47">
-        <v>-0.537654158970318</v>
+        <v>0.7498075280416423</v>
       </c>
       <c r="D47">
-        <v>0.04527053868305899</v>
+        <v>-0.5814427305477682</v>
       </c>
       <c r="E47">
-        <v>0.7376102698843154</v>
+        <v>1.139701722064257</v>
       </c>
       <c r="F47">
-        <v>1.075095032041615</v>
+        <v>0.7944424573121698</v>
       </c>
       <c r="G47">
-        <v>1.15185590088748</v>
+        <v>1.270118843351337</v>
       </c>
       <c r="H47">
-        <v>0.1379935287065368</v>
+        <v>0.8368005782495045</v>
       </c>
       <c r="I47">
-        <v>-1.868313941762095</v>
+        <v>-0.2753154471150859</v>
       </c>
       <c r="J47">
-        <v>-0.06592172173444649</v>
+        <v>-0.129509483564134</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1910,31 +1910,31 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.5499912915157031</v>
+        <v>-1.308772897135982</v>
       </c>
       <c r="C48">
-        <v>0.004606155491854503</v>
+        <v>0.2933117034364767</v>
       </c>
       <c r="D48">
-        <v>-0.1876495215656719</v>
+        <v>0.1107988436143244</v>
       </c>
       <c r="E48">
-        <v>0.3782402898138598</v>
+        <v>0.4453904149150206</v>
       </c>
       <c r="F48">
-        <v>0.8617887749465829</v>
+        <v>0.8882019991588139</v>
       </c>
       <c r="G48">
-        <v>0.7619011701793634</v>
+        <v>0.8511967500169434</v>
       </c>
       <c r="H48">
-        <v>0.6220564785946224</v>
+        <v>0.4010465255093753</v>
       </c>
       <c r="I48">
-        <v>-1.655415982763168</v>
+        <v>-0.5860925880500499</v>
       </c>
       <c r="J48">
-        <v>-0.01598945737773627</v>
+        <v>-0.2515636298375413</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1942,31 +1942,31 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.7237483759298386</v>
+        <v>-0.5220429794364362</v>
       </c>
       <c r="C49">
-        <v>0.349117700828646</v>
+        <v>0.1938039977201845</v>
       </c>
       <c r="D49">
-        <v>-0.1166847637390545</v>
+        <v>0.1752878469001755</v>
       </c>
       <c r="E49">
-        <v>0.5858689766280505</v>
+        <v>0.3036273789948049</v>
       </c>
       <c r="F49">
-        <v>0.7094629440767987</v>
+        <v>0.337055155484769</v>
       </c>
       <c r="G49">
-        <v>0.6825666210722193</v>
+        <v>0.317516464801914</v>
       </c>
       <c r="H49">
-        <v>0.4208207328375225</v>
+        <v>0.3327480729469436</v>
       </c>
       <c r="I49">
-        <v>-0.7183352207273445</v>
+        <v>-0.2546985380544234</v>
       </c>
       <c r="J49">
-        <v>-0.06623177769025144</v>
+        <v>-0.09452508084340321</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,31 +1974,31 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.04468192767539859</v>
+        <v>-0.6430995553328575</v>
       </c>
       <c r="C50">
-        <v>0.01539193737288162</v>
+        <v>0.1982704824410883</v>
       </c>
       <c r="D50">
-        <v>0.02683009104861403</v>
+        <v>0.1741815362882068</v>
       </c>
       <c r="E50">
-        <v>0.02003200198512214</v>
+        <v>0.3194673575859391</v>
       </c>
       <c r="F50">
-        <v>0.0310976047452829</v>
+        <v>0.3611033318210184</v>
       </c>
       <c r="G50">
-        <v>0.03050104339235692</v>
+        <v>0.4081083598814303</v>
       </c>
       <c r="H50">
-        <v>0.008260130512520916</v>
+        <v>0.3283744778534014</v>
       </c>
       <c r="I50">
-        <v>-0.007919839014193299</v>
+        <v>-0.1891693845917193</v>
       </c>
       <c r="J50">
-        <v>-0.003755043805038388</v>
+        <v>0.03242977387892253</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2006,31 +2006,31 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.031675938115051</v>
+        <v>-0.870633565060643</v>
       </c>
       <c r="C51">
-        <v>0.3266545017626319</v>
+        <v>0.1649067777356236</v>
       </c>
       <c r="D51">
-        <v>0.4443208390559651</v>
+        <v>0.3738527430141959</v>
       </c>
       <c r="E51">
-        <v>0.7011497319794689</v>
+        <v>0.4091613987704343</v>
       </c>
       <c r="F51">
-        <v>0.7220471020599112</v>
+        <v>0.4169621665481636</v>
       </c>
       <c r="G51">
-        <v>0.7157732308212377</v>
+        <v>0.4314600395824044</v>
       </c>
       <c r="H51">
-        <v>0.9453066513436607</v>
+        <v>0.469113423438203</v>
       </c>
       <c r="I51">
-        <v>-3.201217295966319</v>
+        <v>-0.2663951687819194</v>
       </c>
       <c r="J51">
-        <v>0.1433405796703286</v>
+        <v>-0.08394741149936373</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2038,31 +2038,31 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.026024750943083</v>
+        <v>-0.003882682299357695</v>
       </c>
       <c r="C52">
-        <v>0.01707014039276345</v>
+        <v>0.001277653422747043</v>
       </c>
       <c r="D52">
-        <v>-0.2704539820090954</v>
+        <v>0.002477017570185931</v>
       </c>
       <c r="E52">
-        <v>0.4740163793025821</v>
+        <v>0.002328099806270801</v>
       </c>
       <c r="F52">
-        <v>0.9351841847698994</v>
+        <v>0.002528053416330085</v>
       </c>
       <c r="G52">
-        <v>0.9097861638780078</v>
+        <v>0.002931558574524699</v>
       </c>
       <c r="H52">
-        <v>0.5824101037606966</v>
+        <v>0.001709350380179708</v>
       </c>
       <c r="I52">
-        <v>-0.567915433386688</v>
+        <v>-0.001805477783801411</v>
       </c>
       <c r="J52">
-        <v>-0.2947582191860877</v>
+        <v>-0.0001587984492877408</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2070,31 +2070,31 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.882774354960757</v>
+        <v>-0.005081270155065866</v>
       </c>
       <c r="C53">
-        <v>0.3680672217012635</v>
+        <v>0.001862307656559683</v>
       </c>
       <c r="D53">
-        <v>0.1317301002647674</v>
+        <v>0.003096344243669669</v>
       </c>
       <c r="E53">
-        <v>0.654658859049473</v>
+        <v>0.002716523455067804</v>
       </c>
       <c r="F53">
-        <v>0.7076328582878448</v>
+        <v>0.003015924197325232</v>
       </c>
       <c r="G53">
-        <v>0.5872461241605531</v>
+        <v>0.002909242177394011</v>
       </c>
       <c r="H53">
-        <v>0.2451318905902384</v>
+        <v>0.002191136361578822</v>
       </c>
       <c r="I53">
-        <v>-0.7000721837334223</v>
+        <v>-0.001463634774952884</v>
       </c>
       <c r="J53">
-        <v>-0.3591768358491692</v>
+        <v>8.328269482392795E-05</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2102,31 +2102,31 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.003312584155883083</v>
+        <v>-1.912263342959236</v>
       </c>
       <c r="C54">
-        <v>0.001100508158826417</v>
+        <v>0.1195616297794059</v>
       </c>
       <c r="D54">
-        <v>0.002409779368002941</v>
+        <v>0.785973708180703</v>
       </c>
       <c r="E54">
-        <v>0.001959556849419052</v>
+        <v>0.1169353847497233</v>
       </c>
       <c r="F54">
-        <v>0.002481451321750987</v>
+        <v>0.9405178921975065</v>
       </c>
       <c r="G54">
-        <v>0.00283941279208804</v>
+        <v>0.8175108813648198</v>
       </c>
       <c r="H54">
-        <v>0.001279191863910354</v>
+        <v>0.9388610889505933</v>
       </c>
       <c r="I54">
-        <v>-0.0006720778338327046</v>
+        <v>-1.081722723603552</v>
       </c>
       <c r="J54">
-        <v>-0.0002214635885216226</v>
+        <v>0.002830003186360606</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2134,31 +2134,31 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.003489815764729847</v>
+        <v>-0.004895970067229666</v>
       </c>
       <c r="C55">
-        <v>0.001357935287170806</v>
+        <v>0.001370146742556982</v>
       </c>
       <c r="D55">
-        <v>0.002428378720969454</v>
+        <v>0.002966349799239701</v>
       </c>
       <c r="E55">
-        <v>0.001676066558103935</v>
+        <v>0.002969349619814881</v>
       </c>
       <c r="F55">
-        <v>0.002803961175739427</v>
+        <v>0.002898914232512784</v>
       </c>
       <c r="G55">
-        <v>0.002900487115206188</v>
+        <v>0.002999379271930886</v>
       </c>
       <c r="H55">
-        <v>0.00082946932852607</v>
+        <v>0.001716257051147494</v>
       </c>
       <c r="I55">
-        <v>-0.0007306728716031869</v>
+        <v>-0.00175367033467839</v>
       </c>
       <c r="J55">
-        <v>-0.0008779275043781455</v>
+        <v>-0.0006330019308500196</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2166,31 +2166,31 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.6969239365657739</v>
+        <v>-0.5729726101699211</v>
       </c>
       <c r="C56">
-        <v>0.2917750536253676</v>
+        <v>0.1970097828962097</v>
       </c>
       <c r="D56">
-        <v>0.281354706829824</v>
+        <v>0.2086647545095801</v>
       </c>
       <c r="E56">
-        <v>0.3579843918002249</v>
+        <v>0.2757722168869557</v>
       </c>
       <c r="F56">
-        <v>0.3969529114817791</v>
+        <v>0.3538955234500488</v>
       </c>
       <c r="G56">
-        <v>0.3779943416345594</v>
+        <v>0.3376826491246031</v>
       </c>
       <c r="H56">
-        <v>0.2477840826737812</v>
+        <v>0.3541550445862888</v>
       </c>
       <c r="I56">
-        <v>-0.1636356464658701</v>
+        <v>-0.1981109463919245</v>
       </c>
       <c r="J56">
-        <v>-0.09688585680663385</v>
+        <v>-0.176569288238252</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2198,31 +2198,31 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.7610171649184601</v>
+        <v>-1.325766416586923</v>
       </c>
       <c r="C57">
-        <v>0.336946960962873</v>
+        <v>0.4346894834190649</v>
       </c>
       <c r="D57">
-        <v>0.06674380449034542</v>
+        <v>0.1347950214637108</v>
       </c>
       <c r="E57">
-        <v>0.7842575220735704</v>
+        <v>0.1373135351888811</v>
       </c>
       <c r="F57">
-        <v>0.7795235208904822</v>
+        <v>0.6445489648663412</v>
       </c>
       <c r="G57">
-        <v>0.7674377058524975</v>
+        <v>1.128181336549292</v>
       </c>
       <c r="H57">
-        <v>0.6779372779919385</v>
+        <v>0.6570682431319534</v>
       </c>
       <c r="I57">
-        <v>-4.356683096433147</v>
+        <v>-0.3261605805254073</v>
       </c>
       <c r="J57">
-        <v>0.1421887102542936</v>
+        <v>0.03250222971218138</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2230,31 +2230,31 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.7392013157893623</v>
+        <v>-0.004306406990661595</v>
       </c>
       <c r="C58">
-        <v>0.3755634518980325</v>
+        <v>0.001133127223466679</v>
       </c>
       <c r="D58">
-        <v>0.1890648377640804</v>
+        <v>0.002653938557781869</v>
       </c>
       <c r="E58">
-        <v>0.1653171044952173</v>
+        <v>0.002637671776779956</v>
       </c>
       <c r="F58">
-        <v>0.6075895526094687</v>
+        <v>0.002899200704747802</v>
       </c>
       <c r="G58">
-        <v>0.6302049559611927</v>
+        <v>0.002994129289760238</v>
       </c>
       <c r="H58">
-        <v>0.5246695178025131</v>
+        <v>0.001693302693331864</v>
       </c>
       <c r="I58">
-        <v>-0.458671212627849</v>
+        <v>-0.001304407550719727</v>
       </c>
       <c r="J58">
-        <v>-0.302834660749883</v>
+        <v>-0.0009422049655218974</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2262,31 +2262,31 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1.19387923462547</v>
+        <v>-0.5904759017119491</v>
       </c>
       <c r="C59">
-        <v>0.2499613724797303</v>
+        <v>0.09067202403675156</v>
       </c>
       <c r="D59">
-        <v>-0.3305837296089821</v>
+        <v>0.1469121948907952</v>
       </c>
       <c r="E59">
-        <v>0.6296993386573458</v>
+        <v>0.3459679017576913</v>
       </c>
       <c r="F59">
-        <v>1.270908180463527</v>
+        <v>0.3765893907188862</v>
       </c>
       <c r="G59">
-        <v>1.227332173281235</v>
+        <v>0.4488428477735929</v>
       </c>
       <c r="H59">
-        <v>0.6355932556350474</v>
+        <v>0.2338975843076337</v>
       </c>
       <c r="I59">
-        <v>-4.216029153286812</v>
+        <v>-0.2861151586453755</v>
       </c>
       <c r="J59">
-        <v>0.3525840581938872</v>
+        <v>-0.0259696678803722</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2294,31 +2294,31 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.00335259886721306</v>
+        <v>-0.004283831110983638</v>
       </c>
       <c r="C60">
-        <v>0.001433843588961856</v>
+        <v>0.001691231883828958</v>
       </c>
       <c r="D60">
-        <v>0.002100347196224099</v>
+        <v>0.002378790112004267</v>
       </c>
       <c r="E60">
-        <v>0.001717163048955876</v>
+        <v>0.002588454030137929</v>
       </c>
       <c r="F60">
-        <v>0.002838709229342528</v>
+        <v>0.002666046193569849</v>
       </c>
       <c r="G60">
-        <v>0.002731005336497063</v>
+        <v>0.002785028114241739</v>
       </c>
       <c r="H60">
-        <v>0.00112000423360869</v>
+        <v>0.00175255794691526</v>
       </c>
       <c r="I60">
-        <v>-0.0005537571633881156</v>
+        <v>-0.001904665307274883</v>
       </c>
       <c r="J60">
-        <v>-0.0007924759270494139</v>
+        <v>-0.001057411943582325</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2326,31 +2326,31 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.220283087294837</v>
+        <v>-0.004251931886201118</v>
       </c>
       <c r="C61">
-        <v>0.06577571091404716</v>
+        <v>0.001340090388504492</v>
       </c>
       <c r="D61">
-        <v>0.08372529411817126</v>
+        <v>0.003032023062367046</v>
       </c>
       <c r="E61">
-        <v>0.1605335475816133</v>
+        <v>0.002672308228458526</v>
       </c>
       <c r="F61">
-        <v>0.1652861679706258</v>
+        <v>0.002747562700962608</v>
       </c>
       <c r="G61">
-        <v>0.1850130958151515</v>
+        <v>0.002595665087155465</v>
       </c>
       <c r="H61">
-        <v>0.09263393624147788</v>
+        <v>0.001659758161225018</v>
       </c>
       <c r="I61">
-        <v>-0.05584946582275904</v>
+        <v>-0.001193195093979394</v>
       </c>
       <c r="J61">
-        <v>-0.01435814436867554</v>
+        <v>-0.001019573597139076</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2358,31 +2358,31 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1.162509195710285</v>
+        <v>-0.843079189513381</v>
       </c>
       <c r="C62">
-        <v>0.5781274101242829</v>
+        <v>0.1422370458454879</v>
       </c>
       <c r="D62">
-        <v>-0.8387298840666874</v>
+        <v>0.3100227331374455</v>
       </c>
       <c r="E62">
-        <v>0.7297251398900095</v>
+        <v>0.3252081939783926</v>
       </c>
       <c r="F62">
-        <v>1.392137740073879</v>
+        <v>0.4994890390667649</v>
       </c>
       <c r="G62">
-        <v>1.083197644719105</v>
+        <v>0.5733206204250206</v>
       </c>
       <c r="H62">
-        <v>0.674181239930665</v>
+        <v>0.3886738617644362</v>
       </c>
       <c r="I62">
-        <v>-1.893290285267405</v>
+        <v>-0.2542999816210605</v>
       </c>
       <c r="J62">
-        <v>-0.1716319110392641</v>
+        <v>-0.01864514010558686</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2390,31 +2390,31 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.003263886260495908</v>
+        <v>-1.561828128111541</v>
       </c>
       <c r="C63">
-        <v>0.001320726825164142</v>
+        <v>0.4754066668351608</v>
       </c>
       <c r="D63">
-        <v>0.002396529150201767</v>
+        <v>-0.3171606746544932</v>
       </c>
       <c r="E63">
-        <v>0.00229492297587122</v>
+        <v>0.7577738568349723</v>
       </c>
       <c r="F63">
-        <v>0.002419205530669386</v>
+        <v>0.7864700245137194</v>
       </c>
       <c r="G63">
-        <v>0.002380087692020636</v>
+        <v>1.257961087905286</v>
       </c>
       <c r="H63">
-        <v>0.001298055018123574</v>
+        <v>0.6988174731636917</v>
       </c>
       <c r="I63">
-        <v>-0.0006124228834577492</v>
+        <v>-0.3648933920719944</v>
       </c>
       <c r="J63">
-        <v>-0.0005200119235343443</v>
+        <v>-0.341899894145723</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2422,31 +2422,31 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.0252476333855408</v>
+        <v>-0.5056837373993865</v>
       </c>
       <c r="C64">
-        <v>0.009830034645120094</v>
+        <v>0.1419153885688845</v>
       </c>
       <c r="D64">
-        <v>0.01813672317176412</v>
+        <v>0.1468056826871933</v>
       </c>
       <c r="E64">
-        <v>0.01863294822482589</v>
+        <v>0.211268708857427</v>
       </c>
       <c r="F64">
-        <v>0.02140270252526182</v>
+        <v>0.3384498175021132</v>
       </c>
       <c r="G64">
-        <v>0.02196318621549318</v>
+        <v>0.3784431487068711</v>
       </c>
       <c r="H64">
-        <v>0.01408305407028449</v>
+        <v>0.3872324201209159</v>
       </c>
       <c r="I64">
-        <v>-0.005370828334201634</v>
+        <v>-0.1790871175059061</v>
       </c>
       <c r="J64">
-        <v>-0.00299096084006124</v>
+        <v>0.0236535424652413</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2454,31 +2454,31 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.003758010320693079</v>
+        <v>-0.9545399242076961</v>
       </c>
       <c r="C65">
-        <v>0.002241907021425026</v>
+        <v>0.1492758923730733</v>
       </c>
       <c r="D65">
-        <v>0.002376290292541142</v>
+        <v>0.4463969671428852</v>
       </c>
       <c r="E65">
-        <v>0.00211594067592357</v>
+        <v>0.3975486088714967</v>
       </c>
       <c r="F65">
-        <v>0.00248701155917123</v>
+        <v>0.4405352768363937</v>
       </c>
       <c r="G65">
-        <v>0.002472047210963966</v>
+        <v>0.4573221916225939</v>
       </c>
       <c r="H65">
-        <v>0.001426037415082488</v>
+        <v>0.3171504409720013</v>
       </c>
       <c r="I65">
-        <v>-0.0006714579587150326</v>
+        <v>-0.568601632622933</v>
       </c>
       <c r="J65">
-        <v>-0.0008489637004390502</v>
+        <v>-0.001899781078169827</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2486,31 +2486,31 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-1.104871641954421</v>
+        <v>-2.643519280972005</v>
       </c>
       <c r="C66">
-        <v>0.5623959545442977</v>
+        <v>0.2643986937344546</v>
       </c>
       <c r="D66">
-        <v>-0.2119928462989773</v>
+        <v>0.7112158449179882</v>
       </c>
       <c r="E66">
-        <v>0.3393892586934699</v>
+        <v>0.8066269033742011</v>
       </c>
       <c r="F66">
-        <v>0.7959408780212222</v>
+        <v>0.8606271273522874</v>
       </c>
       <c r="G66">
-        <v>0.9505688033650443</v>
+        <v>0.9080783430752306</v>
       </c>
       <c r="H66">
-        <v>0.6302695114732191</v>
+        <v>0.590936851433012</v>
       </c>
       <c r="I66">
-        <v>-1.133246539362295</v>
+        <v>-2.497929324095564</v>
       </c>
       <c r="J66">
-        <v>0.0143898339502288</v>
+        <v>0.3698179072385258</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2518,31 +2518,31 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.6064895263988742</v>
+        <v>-0.004203873883106939</v>
       </c>
       <c r="C67">
-        <v>-0.04029252015208993</v>
+        <v>0.001608542446528531</v>
       </c>
       <c r="D67">
-        <v>0.3287887702812196</v>
+        <v>0.00249877112856035</v>
       </c>
       <c r="E67">
-        <v>0.7206141832774794</v>
+        <v>0.002124103213766213</v>
       </c>
       <c r="F67">
-        <v>0.6269362721284515</v>
+        <v>0.003037103916848554</v>
       </c>
       <c r="G67">
-        <v>0.7806392536074168</v>
+        <v>0.003095583948711934</v>
       </c>
       <c r="H67">
-        <v>0.6419895763860346</v>
+        <v>0.001208038692359532</v>
       </c>
       <c r="I67">
-        <v>-3.671206194498795</v>
+        <v>-0.001464547065602574</v>
       </c>
       <c r="J67">
-        <v>0.8118892648888223</v>
+        <v>-0.001208143870517649</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2550,31 +2550,31 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.008774570535187</v>
+        <v>-1.344306648111778</v>
       </c>
       <c r="C68">
-        <v>0.01430136484973018</v>
+        <v>0.1131937414064235</v>
       </c>
       <c r="D68">
-        <v>0.9599038113146966</v>
+        <v>-0.3775121378188652</v>
       </c>
       <c r="E68">
-        <v>0.6176688526675777</v>
+        <v>0.4562360191828997</v>
       </c>
       <c r="F68">
-        <v>0.6585487141816276</v>
+        <v>1.036861691912588</v>
       </c>
       <c r="G68">
-        <v>0.7830242590483779</v>
+        <v>1.14886047632958</v>
       </c>
       <c r="H68">
-        <v>0.2912970874611625</v>
+        <v>0.488276401090408</v>
       </c>
       <c r="I68">
-        <v>-4.263821614135539</v>
+        <v>-0.7389383669485293</v>
       </c>
       <c r="J68">
-        <v>0.4262006465781547</v>
+        <v>-0.08447982060829354</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2582,31 +2582,31 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.004969512254205152</v>
+        <v>-0.006167804497868867</v>
       </c>
       <c r="C69">
-        <v>0.001110293919060811</v>
+        <v>0.002210038377448062</v>
       </c>
       <c r="D69">
-        <v>0.003150711805895017</v>
+        <v>0.003232591982228446</v>
       </c>
       <c r="E69">
-        <v>0.002710257029512778</v>
+        <v>0.002599265293798559</v>
       </c>
       <c r="F69">
-        <v>0.002947414457319383</v>
+        <v>0.003746486584729264</v>
       </c>
       <c r="G69">
-        <v>0.003081499399585864</v>
+        <v>0.003467168514051812</v>
       </c>
       <c r="H69">
-        <v>0.001503832713991766</v>
+        <v>0.001741091703720246</v>
       </c>
       <c r="I69">
-        <v>-0.0008280167342597671</v>
+        <v>-0.001299926698045241</v>
       </c>
       <c r="J69">
-        <v>-0.0008347946386097925</v>
+        <v>-0.001290851751077434</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2614,31 +2614,31 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.2800857533469252</v>
+        <v>-0.005627420168292335</v>
       </c>
       <c r="C70">
-        <v>0.1180418144991587</v>
+        <v>0.001748849895623143</v>
       </c>
       <c r="D70">
-        <v>0.1641556791424896</v>
+        <v>0.003205646110094927</v>
       </c>
       <c r="E70">
-        <v>0.1294502288586568</v>
+        <v>0.002575426838423278</v>
       </c>
       <c r="F70">
-        <v>0.1744363199787068</v>
+        <v>0.00342397729742001</v>
       </c>
       <c r="G70">
-        <v>0.1792160469865853</v>
+        <v>0.003221512876786786</v>
       </c>
       <c r="H70">
-        <v>0.07676797885973068</v>
+        <v>0.002016191183499541</v>
       </c>
       <c r="I70">
-        <v>-0.06687222602616466</v>
+        <v>-0.001854806734911912</v>
       </c>
       <c r="J70">
-        <v>-0.01916059532883351</v>
+        <v>-0.0004624731292980755</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2646,31 +2646,31 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2427637475916995</v>
+        <v>-0.8053454756217489</v>
       </c>
       <c r="C71">
-        <v>0.03437061421433998</v>
+        <v>0.01079781388564481</v>
       </c>
       <c r="D71">
-        <v>0.1525403298677613</v>
+        <v>0.2837122394835556</v>
       </c>
       <c r="E71">
-        <v>0.1286257807847373</v>
+        <v>0.3183385090702561</v>
       </c>
       <c r="F71">
-        <v>0.1540354112580843</v>
+        <v>0.4587531822670071</v>
       </c>
       <c r="G71">
-        <v>0.1799967716036834</v>
+        <v>0.6249819804483432</v>
       </c>
       <c r="H71">
-        <v>0.1292581635836581</v>
+        <v>0.3224030787638276</v>
       </c>
       <c r="I71">
-        <v>-0.05365904983699405</v>
+        <v>-0.3187060612744294</v>
       </c>
       <c r="J71">
-        <v>0.01063559855469823</v>
+        <v>0.07418997161157311</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2678,31 +2678,31 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.003364829755232534</v>
+        <v>-0.3083497683892686</v>
       </c>
       <c r="C72">
-        <v>0.00132502020681498</v>
+        <v>0.1323936545939616</v>
       </c>
       <c r="D72">
-        <v>0.002534721332434112</v>
+        <v>0.1489562467951502</v>
       </c>
       <c r="E72">
-        <v>0.002185647265459874</v>
+        <v>0.1590899134278598</v>
       </c>
       <c r="F72">
-        <v>0.002418518013412103</v>
+        <v>0.1591318075319648</v>
       </c>
       <c r="G72">
-        <v>0.002475010280038141</v>
+        <v>0.1529186451221848</v>
       </c>
       <c r="H72">
-        <v>0.001442008520448462</v>
+        <v>0.1540469406600398</v>
       </c>
       <c r="I72">
-        <v>-0.0006422554749094617</v>
+        <v>-0.1225415191108458</v>
       </c>
       <c r="J72">
-        <v>0.0002847990415501165</v>
+        <v>0.01595702491632146</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2710,31 +2710,31 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.004444444710139913</v>
+        <v>-2.875063620882533</v>
       </c>
       <c r="C73">
-        <v>0.00146534090502378</v>
+        <v>0.4076701381065003</v>
       </c>
       <c r="D73">
-        <v>0.002976023695629159</v>
+        <v>0.3666464175332195</v>
       </c>
       <c r="E73">
-        <v>0.002184925444359944</v>
+        <v>0.7279299430142615</v>
       </c>
       <c r="F73">
-        <v>0.002927156670195762</v>
+        <v>1.203008001899681</v>
       </c>
       <c r="G73">
-        <v>0.003056428333112266</v>
+        <v>1.462475286781654</v>
       </c>
       <c r="H73">
-        <v>0.001203987664700839</v>
+        <v>0.4354710864821148</v>
       </c>
       <c r="I73">
-        <v>-0.0006407408404916348</v>
+        <v>-2.535262886442038</v>
       </c>
       <c r="J73">
-        <v>0.0005897900824252979</v>
+        <v>0.4256619010079418</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2742,31 +2742,31 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.629195007406319</v>
+        <v>-0.004500436497435076</v>
       </c>
       <c r="C74">
-        <v>0.1755480372737627</v>
+        <v>0.001783075803528307</v>
       </c>
       <c r="D74">
-        <v>0.3510186686445492</v>
+        <v>0.002253784365325313</v>
       </c>
       <c r="E74">
-        <v>0.168681102450864</v>
+        <v>0.002038195849534084</v>
       </c>
       <c r="F74">
-        <v>0.4189066137490692</v>
+        <v>0.003225332865568483</v>
       </c>
       <c r="G74">
-        <v>0.4073037626731381</v>
+        <v>0.00340783500690497</v>
       </c>
       <c r="H74">
-        <v>0.229433839097358</v>
+        <v>0.001815109236085035</v>
       </c>
       <c r="I74">
-        <v>-0.06312047869075633</v>
+        <v>-0.001448402239158529</v>
       </c>
       <c r="J74">
-        <v>-0.03242826216401829</v>
+        <v>-0.0001229608451125352</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2774,31 +2774,31 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.5271882736741095</v>
+        <v>-0.6756640439480186</v>
       </c>
       <c r="C75">
-        <v>0.04686016415454309</v>
+        <v>0.1827878512474099</v>
       </c>
       <c r="D75">
-        <v>0.1580524887640927</v>
+        <v>0.2260189108055218</v>
       </c>
       <c r="E75">
-        <v>0.8150481183647702</v>
+        <v>0.3775542206396171</v>
       </c>
       <c r="F75">
-        <v>0.5565259243957554</v>
+        <v>0.4267968830738528</v>
       </c>
       <c r="G75">
-        <v>0.6704280865545585</v>
+        <v>0.4920646738108311</v>
       </c>
       <c r="H75">
-        <v>0.4305272083824773</v>
+        <v>0.03857682399417043</v>
       </c>
       <c r="I75">
-        <v>-3.587609708065251</v>
+        <v>-0.1655217656023526</v>
       </c>
       <c r="J75">
-        <v>0.4450206541809453</v>
+        <v>0.06411852471714713</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2806,31 +2806,31 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.004271391495179833</v>
+        <v>-1.091789255623702</v>
       </c>
       <c r="C76">
-        <v>0.002070869219910918</v>
+        <v>0.4591223901802997</v>
       </c>
       <c r="D76">
-        <v>0.002983787447465733</v>
+        <v>0.1386912357147558</v>
       </c>
       <c r="E76">
-        <v>0.002235533434505012</v>
+        <v>0.1283790842082265</v>
       </c>
       <c r="F76">
-        <v>0.00259174956849015</v>
+        <v>0.7372772011233382</v>
       </c>
       <c r="G76">
-        <v>0.002675156481265609</v>
+        <v>0.8296327735018296</v>
       </c>
       <c r="H76">
-        <v>0.001473798153794802</v>
+        <v>0.8089773565603571</v>
       </c>
       <c r="I76">
-        <v>-0.0008286929474816228</v>
+        <v>-0.3009821048469932</v>
       </c>
       <c r="J76">
-        <v>4.671415263969613E-05</v>
+        <v>-0.2536999596716108</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2838,31 +2838,31 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.4479661014089187</v>
+        <v>-0.797821896134397</v>
       </c>
       <c r="C77">
-        <v>-0.1486936721011107</v>
+        <v>0.1908696832536615</v>
       </c>
       <c r="D77">
-        <v>0.05535326891178138</v>
+        <v>0.3414702123245164</v>
       </c>
       <c r="E77">
-        <v>0.3252601887897899</v>
+        <v>0.2719621794146018</v>
       </c>
       <c r="F77">
-        <v>0.706470931637739</v>
+        <v>0.4265157361789157</v>
       </c>
       <c r="G77">
-        <v>0.7285421146358834</v>
+        <v>0.4490529039096723</v>
       </c>
       <c r="H77">
-        <v>0.6601047054618491</v>
+        <v>0.2200822154060405</v>
       </c>
       <c r="I77">
-        <v>-1.656289402110007</v>
+        <v>-0.2991167820054406</v>
       </c>
       <c r="J77">
-        <v>-0.2560108862683112</v>
+        <v>0.02168719714107554</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2870,31 +2870,31 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.098529413156019</v>
+        <v>-0.9339781398537943</v>
       </c>
       <c r="C78">
-        <v>0.9992448904294239</v>
+        <v>0.3434642464614217</v>
       </c>
       <c r="D78">
-        <v>-0.6202002887267778</v>
+        <v>0.2604763833234248</v>
       </c>
       <c r="E78">
-        <v>0.5405258531384175</v>
+        <v>0.3424509354549951</v>
       </c>
       <c r="F78">
-        <v>0.8311623421882757</v>
+        <v>0.432699420347213</v>
       </c>
       <c r="G78">
-        <v>0.9038922738759283</v>
+        <v>0.4836669179092991</v>
       </c>
       <c r="H78">
-        <v>0.7182088868299382</v>
+        <v>0.4024821481489825</v>
       </c>
       <c r="I78">
-        <v>-0.9945767939933507</v>
+        <v>-0.5757903026964373</v>
       </c>
       <c r="J78">
-        <v>-0.09190000054155625</v>
+        <v>0.07042226576729402</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2902,31 +2902,31 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.7266608885640242</v>
+        <v>-1.00833422810996</v>
       </c>
       <c r="C79">
-        <v>0.356733901759446</v>
+        <v>0.2635099235241405</v>
       </c>
       <c r="D79">
-        <v>0.2386261728330553</v>
+        <v>0.6125291054918345</v>
       </c>
       <c r="E79">
-        <v>0.3032613415722898</v>
+        <v>0.3264501789455125</v>
       </c>
       <c r="F79">
-        <v>0.5216962552699635</v>
+        <v>0.3642891631821499</v>
       </c>
       <c r="G79">
-        <v>0.4441930908123682</v>
+        <v>0.4755135982160035</v>
       </c>
       <c r="H79">
-        <v>0.4096819157230818</v>
+        <v>0.3900024309681617</v>
       </c>
       <c r="I79">
-        <v>-0.3547386575290913</v>
+        <v>-0.5456561850434194</v>
       </c>
       <c r="J79">
-        <v>-0.01596414960534236</v>
+        <v>0.1801805027608604</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2934,31 +2934,31 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.5356520878097417</v>
+        <v>-1.598771692817525</v>
       </c>
       <c r="C80">
-        <v>0.1905619259711235</v>
+        <v>-0.08178415572550896</v>
       </c>
       <c r="D80">
-        <v>0.3002028562126194</v>
+        <v>-0.4271741341546503</v>
       </c>
       <c r="E80">
-        <v>0.3065491286022148</v>
+        <v>0.6832396260189222</v>
       </c>
       <c r="F80">
-        <v>0.3616498368762588</v>
+        <v>1.158402015994548</v>
       </c>
       <c r="G80">
-        <v>0.3373341557314346</v>
+        <v>1.333608296231243</v>
       </c>
       <c r="H80">
-        <v>0.1874539174185127</v>
+        <v>0.7036479312719816</v>
       </c>
       <c r="I80">
-        <v>-0.1351552560588865</v>
+        <v>-0.9295991829006428</v>
       </c>
       <c r="J80">
-        <v>-0.01363813484639426</v>
+        <v>-0.1897363852834429</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2966,31 +2966,31 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-1.18671848588631</v>
+        <v>-0.5150592287577519</v>
       </c>
       <c r="C81">
-        <v>0.1148240447268299</v>
+        <v>0.2344776286479756</v>
       </c>
       <c r="D81">
-        <v>-0.2641200524403431</v>
+        <v>0.1679497638481392</v>
       </c>
       <c r="E81">
-        <v>0.6653789130954797</v>
+        <v>0.2622893214613422</v>
       </c>
       <c r="F81">
-        <v>0.9201663637117493</v>
+        <v>0.3840127421614092</v>
       </c>
       <c r="G81">
-        <v>1.007008230412633</v>
+        <v>0.3815557547650932</v>
       </c>
       <c r="H81">
-        <v>0.3951113052532369</v>
+        <v>0.3030497165856522</v>
       </c>
       <c r="I81">
-        <v>-0.543650753063891</v>
+        <v>-0.1797604821862939</v>
       </c>
       <c r="J81">
-        <v>-0.2417294722961525</v>
+        <v>-0.01646956693274414</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2998,31 +2998,31 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.521637340508195</v>
+        <v>-2.239670327274659</v>
       </c>
       <c r="C82">
-        <v>0.1703878558896213</v>
+        <v>0.4898835405238245</v>
       </c>
       <c r="D82">
-        <v>0.2944857478183802</v>
+        <v>-0.03672648210000382</v>
       </c>
       <c r="E82">
-        <v>0.2997124920799039</v>
+        <v>0.4333383489647538</v>
       </c>
       <c r="F82">
-        <v>0.3335462899423671</v>
+        <v>1.098791440054254</v>
       </c>
       <c r="G82">
-        <v>0.3454487676491385</v>
+        <v>1.138298398733874</v>
       </c>
       <c r="H82">
-        <v>0.250260071863737</v>
+        <v>0.7889226998653042</v>
       </c>
       <c r="I82">
-        <v>-0.2507174610057089</v>
+        <v>-1.450975709296215</v>
       </c>
       <c r="J82">
-        <v>-0.05377646369153927</v>
+        <v>0.1786770635298272</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3030,31 +3030,31 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-1.01089389627773</v>
+        <v>-1.19680229798804</v>
       </c>
       <c r="C83">
-        <v>-0.3011489689965919</v>
+        <v>0.3649423368180522</v>
       </c>
       <c r="D83">
-        <v>0.1676565176293645</v>
+        <v>0.08543433072891372</v>
       </c>
       <c r="E83">
-        <v>0.6109736903699206</v>
+        <v>0.4683707022338124</v>
       </c>
       <c r="F83">
-        <v>1.11361465587363</v>
+        <v>0.7519286435536423</v>
       </c>
       <c r="G83">
-        <v>0.9304674616805786</v>
+        <v>0.8820707123556197</v>
       </c>
       <c r="H83">
-        <v>0.3398176225961163</v>
+        <v>0.5665000696468171</v>
       </c>
       <c r="I83">
-        <v>-1.056100753079477</v>
+        <v>-0.6497975291827467</v>
       </c>
       <c r="J83">
-        <v>0.00769194914560911</v>
+        <v>-0.2427929490988414</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3062,31 +3062,31 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.005127848082311919</v>
+        <v>-0.005724226643376257</v>
       </c>
       <c r="C84">
-        <v>0.001650072147089538</v>
+        <v>0.001764235978023367</v>
       </c>
       <c r="D84">
-        <v>0.002773206107415071</v>
+        <v>0.003237666037224292</v>
       </c>
       <c r="E84">
-        <v>0.003026714174800589</v>
+        <v>0.002856602111935829</v>
       </c>
       <c r="F84">
-        <v>0.002980753301156215</v>
+        <v>0.003457222933812311</v>
       </c>
       <c r="G84">
-        <v>0.003042083289867484</v>
+        <v>0.00343364186615657</v>
       </c>
       <c r="H84">
-        <v>0.001668115374481784</v>
+        <v>0.001233223361231506</v>
       </c>
       <c r="I84">
-        <v>-0.0006107744995379916</v>
+        <v>-0.001409615782555074</v>
       </c>
       <c r="J84">
-        <v>-0.000456058246815431</v>
+        <v>-0.00127251962419348</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3094,31 +3094,31 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-1.217942602670648</v>
+        <v>-0.00553301160130643</v>
       </c>
       <c r="C85">
-        <v>-0.2623851681763221</v>
+        <v>0.002024521620564665</v>
       </c>
       <c r="D85">
-        <v>0.6617346201036315</v>
+        <v>0.002975641219629145</v>
       </c>
       <c r="E85">
-        <v>1.380331255787459</v>
+        <v>0.00265003537938562</v>
       </c>
       <c r="F85">
-        <v>0.4757495399571515</v>
+        <v>0.003474369144783462</v>
       </c>
       <c r="G85">
-        <v>1.072945461430832</v>
+        <v>0.003367395140046577</v>
       </c>
       <c r="H85">
-        <v>0.4336307135787262</v>
+        <v>0.001568255647262869</v>
       </c>
       <c r="I85">
-        <v>-4.598776741426007</v>
+        <v>-0.001569664062663341</v>
       </c>
       <c r="J85">
-        <v>1.15426642224405</v>
+        <v>-0.0007861741350967356</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3126,31 +3126,31 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.003696587229746097</v>
+        <v>-0.004891706500002565</v>
       </c>
       <c r="C86">
-        <v>0.001693891343054697</v>
+        <v>0.001567513976743536</v>
       </c>
       <c r="D86">
-        <v>0.002255848361429345</v>
+        <v>0.003176774305496451</v>
       </c>
       <c r="E86">
-        <v>0.002420691370825961</v>
+        <v>0.002191773804289529</v>
       </c>
       <c r="F86">
-        <v>0.002585124998779</v>
+        <v>0.002953425393513437</v>
       </c>
       <c r="G86">
-        <v>0.002581237866060504</v>
+        <v>0.002793219402759346</v>
       </c>
       <c r="H86">
-        <v>0.001381361142216546</v>
+        <v>0.002315912778793502</v>
       </c>
       <c r="I86">
-        <v>-0.0007009028584376716</v>
+        <v>-0.001503202903449937</v>
       </c>
       <c r="J86">
-        <v>-0.0008570541394405292</v>
+        <v>-0.001336107165562044</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3158,31 +3158,31 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.9760309902873454</v>
+        <v>-2.471666545708687</v>
       </c>
       <c r="C87">
-        <v>0.1894134293492156</v>
+        <v>0.3887952491357662</v>
       </c>
       <c r="D87">
-        <v>0.06655584912344693</v>
+        <v>1.309279523211874</v>
       </c>
       <c r="E87">
-        <v>0.4728642917632072</v>
+        <v>0.9728611883618239</v>
       </c>
       <c r="F87">
-        <v>0.8596666364397199</v>
+        <v>0.3881059839003518</v>
       </c>
       <c r="G87">
-        <v>0.8733313176599867</v>
+        <v>0.5905089307437694</v>
       </c>
       <c r="H87">
-        <v>0.4030412580316037</v>
+        <v>0.986135549737222</v>
       </c>
       <c r="I87">
-        <v>-0.6221197811457803</v>
+        <v>-1.23322101493211</v>
       </c>
       <c r="J87">
-        <v>-0.1257483394251629</v>
+        <v>0.06469787272002947</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3190,31 +3190,31 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.2673382983089977</v>
+        <v>-0.8553926180662842</v>
       </c>
       <c r="C88">
-        <v>0.1041937260032775</v>
+        <v>0.02623309333295125</v>
       </c>
       <c r="D88">
-        <v>0.1599491535478431</v>
+        <v>-0.07451365255839404</v>
       </c>
       <c r="E88">
-        <v>0.1099207569382898</v>
+        <v>0.5862823598283142</v>
       </c>
       <c r="F88">
-        <v>0.1567817614871511</v>
+        <v>0.6047703619008568</v>
       </c>
       <c r="G88">
-        <v>0.160973148589042</v>
+        <v>0.7222546582418015</v>
       </c>
       <c r="H88">
-        <v>0.1491639682881316</v>
+        <v>0.4205206644173795</v>
       </c>
       <c r="I88">
-        <v>-0.06087198037300199</v>
+        <v>-0.6418984659608258</v>
       </c>
       <c r="J88">
-        <v>-0.05152709113020661</v>
+        <v>0.3144711034632893</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3222,31 +3222,31 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.9630453495747805</v>
+        <v>-0.5740121234434391</v>
       </c>
       <c r="C89">
-        <v>-0.2805724081182341</v>
+        <v>0.1727389551811511</v>
       </c>
       <c r="D89">
-        <v>0.1510470445411712</v>
+        <v>0.1574285702282752</v>
       </c>
       <c r="E89">
-        <v>0.729238002817698</v>
+        <v>0.4345045228551649</v>
       </c>
       <c r="F89">
-        <v>0.86458566188025</v>
+        <v>0.308052152642211</v>
       </c>
       <c r="G89">
-        <v>0.9259145815313988</v>
+        <v>0.371372747256496</v>
       </c>
       <c r="H89">
-        <v>0.4582104207343009</v>
+        <v>0.1793316928490926</v>
       </c>
       <c r="I89">
-        <v>-1.022180084657979</v>
+        <v>-0.2105994942279121</v>
       </c>
       <c r="J89">
-        <v>0.3826848893942739</v>
+        <v>0.02984821932853094</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3254,31 +3254,31 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.2918865575684818</v>
+        <v>-1.887542040882192</v>
       </c>
       <c r="C90">
-        <v>0.1138071848734695</v>
+        <v>0.4940517820979021</v>
       </c>
       <c r="D90">
-        <v>0.1616798483525977</v>
+        <v>0.4748081086238548</v>
       </c>
       <c r="E90">
-        <v>0.1637717781170436</v>
+        <v>0.4122985786860566</v>
       </c>
       <c r="F90">
-        <v>0.1569790554987597</v>
+        <v>0.8441878338407378</v>
       </c>
       <c r="G90">
-        <v>0.1566989010405715</v>
+        <v>0.9788919289032686</v>
       </c>
       <c r="H90">
-        <v>0.1435815516577491</v>
+        <v>0.5102417026681748</v>
       </c>
       <c r="I90">
-        <v>-0.05828386497503554</v>
+        <v>-1.008894210760835</v>
       </c>
       <c r="J90">
-        <v>-0.0171978311007426</v>
+        <v>0.3570454876081286</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3286,31 +3286,31 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.4201274087201523</v>
+        <v>-0.9118557197226962</v>
       </c>
       <c r="C91">
-        <v>0.2303082762466309</v>
+        <v>0.1070922200308721</v>
       </c>
       <c r="D91">
-        <v>0.2444430902331966</v>
+        <v>0.2821298291802329</v>
       </c>
       <c r="E91">
-        <v>0.2868821802278572</v>
+        <v>0.7188462071164144</v>
       </c>
       <c r="F91">
-        <v>0.3036791146343929</v>
+        <v>0.3770692349759275</v>
       </c>
       <c r="G91">
-        <v>0.3085328192352553</v>
+        <v>0.5088540747886585</v>
       </c>
       <c r="H91">
-        <v>0.2047257107385478</v>
+        <v>0.412467107164013</v>
       </c>
       <c r="I91">
-        <v>-0.2325774788226214</v>
+        <v>-0.1947492969871327</v>
       </c>
       <c r="J91">
-        <v>-0.009320107285953524</v>
+        <v>0.008921261701273758</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3318,31 +3318,31 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.003677174726812522</v>
+        <v>-0.005384266972290651</v>
       </c>
       <c r="C92">
-        <v>0.001258777420109007</v>
+        <v>0.001835225572376153</v>
       </c>
       <c r="D92">
-        <v>0.002526037756035685</v>
+        <v>0.003027806595809653</v>
       </c>
       <c r="E92">
-        <v>0.002011970894206209</v>
+        <v>0.002435352661719766</v>
       </c>
       <c r="F92">
-        <v>0.002735130474400222</v>
+        <v>0.003274543205223576</v>
       </c>
       <c r="G92">
-        <v>0.00277195781053147</v>
+        <v>0.003013073903579315</v>
       </c>
       <c r="H92">
-        <v>0.00133371451335269</v>
+        <v>0.002286678491319114</v>
       </c>
       <c r="I92">
-        <v>-0.0006417368927263405</v>
+        <v>-0.001301564879825191</v>
       </c>
       <c r="J92">
-        <v>-0.0007376549401108746</v>
+        <v>-0.001559207381589266</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3350,31 +3350,31 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.6618619945624591</v>
+        <v>-0.004648227201468823</v>
       </c>
       <c r="C93">
-        <v>0.1595683538527434</v>
+        <v>0.001395010158916485</v>
       </c>
       <c r="D93">
-        <v>0.1467712382785772</v>
+        <v>0.002616193123461293</v>
       </c>
       <c r="E93">
-        <v>0.4393428010394478</v>
+        <v>0.002560639759849349</v>
       </c>
       <c r="F93">
-        <v>0.6464012339867344</v>
+        <v>0.002855041702833055</v>
       </c>
       <c r="G93">
-        <v>0.6975422652126086</v>
+        <v>0.002921549881598427</v>
       </c>
       <c r="H93">
-        <v>0.3160781538540557</v>
+        <v>0.002175821551620971</v>
       </c>
       <c r="I93">
-        <v>-0.6871054179464314</v>
+        <v>-0.001572066563113158</v>
       </c>
       <c r="J93">
-        <v>-0.1021453189145461</v>
+        <v>-0.001370195545827324</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3382,31 +3382,31 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.4919305209603506</v>
+        <v>-1.106297368914699</v>
       </c>
       <c r="C94">
-        <v>0.1084611275071165</v>
+        <v>0.3396489252705105</v>
       </c>
       <c r="D94">
-        <v>0.2359270470413356</v>
+        <v>0.241768343418863</v>
       </c>
       <c r="E94">
-        <v>0.2291442786352222</v>
+        <v>0.2823297379164373</v>
       </c>
       <c r="F94">
-        <v>0.3985894117544872</v>
+        <v>0.5399857786338518</v>
       </c>
       <c r="G94">
-        <v>0.4304759527616264</v>
+        <v>0.6994266880540262</v>
       </c>
       <c r="H94">
-        <v>0.1260944489539443</v>
+        <v>0.5523853918455108</v>
       </c>
       <c r="I94">
-        <v>-0.1616958607140268</v>
+        <v>-0.4346008617233033</v>
       </c>
       <c r="J94">
-        <v>0.02547586713911148</v>
+        <v>-0.07005806427646134</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3414,31 +3414,31 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.7219897497740366</v>
+        <v>-0.04999196344748826</v>
       </c>
       <c r="C95">
-        <v>0.2264847458127428</v>
+        <v>0.0188969161897955</v>
       </c>
       <c r="D95">
-        <v>0.1093747499279312</v>
+        <v>0.02942243399904804</v>
       </c>
       <c r="E95">
-        <v>0.6610568546174967</v>
+        <v>0.0266944432485192</v>
       </c>
       <c r="F95">
-        <v>0.5733292278409144</v>
+        <v>0.02919875100933525</v>
       </c>
       <c r="G95">
-        <v>0.6190441695680545</v>
+        <v>0.02805556959783358</v>
       </c>
       <c r="H95">
-        <v>0.7015198415361121</v>
+        <v>0.01268552658809432</v>
       </c>
       <c r="I95">
-        <v>-1.385725281210555</v>
+        <v>-0.01717894090331188</v>
       </c>
       <c r="J95">
-        <v>-0.005085745670606902</v>
+        <v>-0.008104363848279089</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3446,31 +3446,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.6614689797593015</v>
+        <v>-0.350046076232041</v>
       </c>
       <c r="C96">
-        <v>0.1088614963120001</v>
+        <v>0.1320268226576148</v>
       </c>
       <c r="D96">
-        <v>0.2334740203542262</v>
+        <v>0.1584203545448671</v>
       </c>
       <c r="E96">
-        <v>0.3330552005092872</v>
+        <v>0.1457151957791248</v>
       </c>
       <c r="F96">
-        <v>0.4569251951985936</v>
+        <v>0.1994146146442256</v>
       </c>
       <c r="G96">
-        <v>0.471780246047117</v>
+        <v>0.186972294499475</v>
       </c>
       <c r="H96">
-        <v>0.4137583091582555</v>
+        <v>0.08011173380953361</v>
       </c>
       <c r="I96">
-        <v>-0.2301751216883298</v>
+        <v>-0.1182473276062021</v>
       </c>
       <c r="J96">
-        <v>-0.1169721331726553</v>
+        <v>-0.04359379956444936</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3478,31 +3478,31 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.004534229112562225</v>
+        <v>-0.5589326001602802</v>
       </c>
       <c r="C97">
-        <v>0.00183370844149044</v>
+        <v>0.1898094745987906</v>
       </c>
       <c r="D97">
-        <v>0.00256901029642869</v>
+        <v>0.1663486514951221</v>
       </c>
       <c r="E97">
-        <v>0.002067595270098714</v>
+        <v>0.2618502011723247</v>
       </c>
       <c r="F97">
-        <v>0.002583526281957685</v>
+        <v>0.3806914806697022</v>
       </c>
       <c r="G97">
-        <v>0.002829584866355684</v>
+        <v>0.4658704093107319</v>
       </c>
       <c r="H97">
-        <v>0.002367904489902129</v>
+        <v>0.1886801981240204</v>
       </c>
       <c r="I97">
-        <v>-0.0006708876259786245</v>
+        <v>-0.1727765702739267</v>
       </c>
       <c r="J97">
-        <v>-0.001311166024477032</v>
+        <v>-0.1874177662844317</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3510,31 +3510,31 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.004254710639885469</v>
+        <v>-0.005408947850116773</v>
       </c>
       <c r="C98">
-        <v>0.001673239672549782</v>
+        <v>0.001944851675456072</v>
       </c>
       <c r="D98">
-        <v>0.002728663690586909</v>
+        <v>0.002849589731657845</v>
       </c>
       <c r="E98">
-        <v>0.002565225263868837</v>
+        <v>0.002539434885011902</v>
       </c>
       <c r="F98">
-        <v>0.002391193483779095</v>
+        <v>0.003499962635371019</v>
       </c>
       <c r="G98">
-        <v>0.002623008296593313</v>
+        <v>0.003414892022469757</v>
       </c>
       <c r="H98">
-        <v>0.002042576576356467</v>
+        <v>0.001896414182595869</v>
       </c>
       <c r="I98">
-        <v>-0.0005527131519758443</v>
+        <v>-0.001410625186680503</v>
       </c>
       <c r="J98">
-        <v>-0.0004619200602466613</v>
+        <v>-0.0001134107908634847</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3542,31 +3542,31 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.00286053847925662</v>
+        <v>-2.194905875153916</v>
       </c>
       <c r="C99">
-        <v>0.001269360760134491</v>
+        <v>0.4253563037188621</v>
       </c>
       <c r="D99">
-        <v>0.002277404318663194</v>
+        <v>-0.3830203964352398</v>
       </c>
       <c r="E99">
-        <v>0.002021434744922012</v>
+        <v>0.5498093188474504</v>
       </c>
       <c r="F99">
-        <v>0.002194815651880385</v>
+        <v>1.351555263190564</v>
       </c>
       <c r="G99">
-        <v>0.002240654023554917</v>
+        <v>1.417989334900196</v>
       </c>
       <c r="H99">
-        <v>0.001464475749409957</v>
+        <v>0.8034514359060219</v>
       </c>
       <c r="I99">
-        <v>-0.0005832000320089232</v>
+        <v>-0.7232782367833993</v>
       </c>
       <c r="J99">
-        <v>-0.0004138284272542857</v>
+        <v>-0.3823131161119871</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3574,31 +3574,31 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.8743307791354371</v>
+        <v>-0.004719538506089214</v>
       </c>
       <c r="C100">
-        <v>0.4639218352032113</v>
+        <v>0.001716826039828759</v>
       </c>
       <c r="D100">
-        <v>0.02475894545615516</v>
+        <v>0.002888299754745957</v>
       </c>
       <c r="E100">
-        <v>0.629725034168851</v>
+        <v>0.002534745855499922</v>
       </c>
       <c r="F100">
-        <v>0.7343178363855266</v>
+        <v>0.003021720871703891</v>
       </c>
       <c r="G100">
-        <v>0.7257617124527853</v>
+        <v>0.003087998922720173</v>
       </c>
       <c r="H100">
-        <v>0.2694223217430743</v>
+        <v>0.00191814671262548</v>
       </c>
       <c r="I100">
-        <v>-1.380916312229684</v>
+        <v>-0.001302502376782278</v>
       </c>
       <c r="J100">
-        <v>0.2812136349517069</v>
+        <v>-3.509946650608394E-05</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3606,31 +3606,31 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.1785258755619413</v>
+        <v>-1.467141332223242</v>
       </c>
       <c r="C101">
-        <v>0.0403490292269488</v>
+        <v>-0.1630309995202487</v>
       </c>
       <c r="D101">
-        <v>0.1171443482365532</v>
+        <v>-0.1233917811556864</v>
       </c>
       <c r="E101">
-        <v>0.1177446795680429</v>
+        <v>0.7685325939569113</v>
       </c>
       <c r="F101">
-        <v>0.1502520407566058</v>
+        <v>1.024299032868201</v>
       </c>
       <c r="G101">
-        <v>0.1633573626165194</v>
+        <v>0.9727191951356807</v>
       </c>
       <c r="H101">
-        <v>0.1008962629306825</v>
+        <v>0.4873223332197316</v>
       </c>
       <c r="I101">
-        <v>-0.05128653872629577</v>
+        <v>-0.9825716997843511</v>
       </c>
       <c r="J101">
-        <v>-0.0151167973938261</v>
+        <v>0.03223552768865342</v>
       </c>
     </row>
   </sheetData>
